--- a/Code/Results/Cases/Case_4_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,78 +406,81 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_4_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,125 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="B2">
+        <v>27.22306802021285</v>
+      </c>
+      <c r="C2">
+        <v>20.4561975593008</v>
+      </c>
+      <c r="D2">
+        <v>7.291200923683398</v>
+      </c>
+      <c r="E2">
+        <v>8.685171611768498</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.040545564887517</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>20.75197536992147</v>
+      </c>
+      <c r="N2">
+        <v>13.70487014211916</v>
+      </c>
+      <c r="O2">
+        <v>33.79975111812173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>25.20706980670062</v>
+      </c>
+      <c r="C3">
+        <v>18.93389830213467</v>
+      </c>
+      <c r="D3">
+        <v>6.754143535132565</v>
+      </c>
+      <c r="E3">
+        <v>8.201741618623544</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.055288556025306</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>19.23034467202202</v>
+      </c>
+      <c r="N3">
+        <v>13.80940164851414</v>
+      </c>
+      <c r="O3">
+        <v>32.00655271672281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>23.91520615492</v>
+      </c>
+      <c r="C4">
+        <v>17.95860998435742</v>
+      </c>
+      <c r="D4">
+        <v>6.409839300742218</v>
+      </c>
+      <c r="E4">
+        <v>7.902983349805101</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.064461113814525</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>18.25515369922675</v>
+      </c>
+      <c r="N4">
+        <v>13.88067847646376</v>
+      </c>
+      <c r="O4">
+        <v>30.90337651167528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>23.37479206038989</v>
+      </c>
+      <c r="C5">
+        <v>17.55062492514676</v>
+      </c>
+      <c r="D5">
+        <v>6.265757829888295</v>
+      </c>
+      <c r="E5">
+        <v>7.780786817927578</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.068235281356822</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>17.84713162633442</v>
+      </c>
+      <c r="N5">
+        <v>13.91137768473256</v>
+      </c>
+      <c r="O5">
+        <v>30.45342094391227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>23.28420281047492</v>
+      </c>
+      <c r="C6">
+        <v>17.48223300422456</v>
+      </c>
+      <c r="D6">
+        <v>6.241602031231531</v>
+      </c>
+      <c r="E6">
+        <v>7.760470738984441</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.068864333737599</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>17.77872893601104</v>
+      </c>
+      <c r="N6">
+        <v>13.91657161428846</v>
+      </c>
+      <c r="O6">
+        <v>30.37868835033742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>23.90797497050693</v>
+      </c>
+      <c r="C7">
+        <v>17.95315088505538</v>
+      </c>
+      <c r="D7">
+        <v>6.407911597304082</v>
+      </c>
+      <c r="E7">
+        <v>7.901337113306004</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.064511859190242</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>18.24969441047496</v>
+      </c>
+      <c r="N7">
+        <v>13.88108596306292</v>
+      </c>
+      <c r="O7">
+        <v>30.89730960699337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>26.53891949798103</v>
+      </c>
+      <c r="C8">
+        <v>19.93951678713596</v>
+      </c>
+      <c r="D8">
+        <v>7.108969555757199</v>
+      </c>
+      <c r="E8">
+        <v>8.518894701072787</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.045607825437472</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>20.23559219726059</v>
+      </c>
+      <c r="N8">
+        <v>13.73935629170123</v>
+      </c>
+      <c r="O8">
+        <v>33.1819415928755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>31.28978046670508</v>
+      </c>
+      <c r="C9">
+        <v>23.53025701415644</v>
+      </c>
+      <c r="D9">
+        <v>8.374229153408914</v>
+      </c>
+      <c r="E9">
+        <v>9.715260445173419</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2.009178112879968</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>23.82268631601824</v>
+      </c>
+      <c r="N9">
+        <v>13.52460098526817</v>
+      </c>
+      <c r="O9">
+        <v>37.64688831395468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>34.56506353902974</v>
+      </c>
+      <c r="C10">
+        <v>26.01139403426075</v>
+      </c>
+      <c r="D10">
+        <v>9.246627038561584</v>
+      </c>
+      <c r="E10">
+        <v>10.7642631507756</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1.982286530196887</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>26.29889648566613</v>
+      </c>
+      <c r="N10">
+        <v>13.41681681061201</v>
+      </c>
+      <c r="O10">
+        <v>40.93375599278527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>36.01782280704547</v>
+      </c>
+      <c r="C11">
+        <v>27.1139715858523</v>
+      </c>
+      <c r="D11">
+        <v>9.633702761764367</v>
+      </c>
+      <c r="E11">
+        <v>11.2340044651279</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1.969880333288025</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>27.39853003315918</v>
+      </c>
+      <c r="N11">
+        <v>13.38188196434756</v>
+      </c>
+      <c r="O11">
+        <v>42.55121682445671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>36.56358129169684</v>
+      </c>
+      <c r="C12">
+        <v>27.52855614203514</v>
+      </c>
+      <c r="D12">
+        <v>9.779140060076648</v>
+      </c>
+      <c r="E12">
+        <v>11.41096589775251</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1.965142388756642</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>27.81187290560759</v>
+      </c>
+      <c r="N12">
+        <v>13.3710193673369</v>
+      </c>
+      <c r="O12">
+        <v>43.18579002077244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>36.44621906661524</v>
+      </c>
+      <c r="C13">
+        <v>27.43938379292173</v>
+      </c>
+      <c r="D13">
+        <v>9.747863413483541</v>
+      </c>
+      <c r="E13">
+        <v>11.37288812683846</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1.966164842986577</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>27.7229741138697</v>
+      </c>
+      <c r="N13">
+        <v>13.37324743372524</v>
+      </c>
+      <c r="O13">
+        <v>43.04912180099435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>36.06280395494658</v>
+      </c>
+      <c r="C14">
+        <v>27.14813331203298</v>
+      </c>
+      <c r="D14">
+        <v>9.645689104453087</v>
+      </c>
+      <c r="E14">
+        <v>11.24857917557548</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1.969491438916108</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>27.43259232368687</v>
+      </c>
+      <c r="N14">
+        <v>13.38093867770467</v>
+      </c>
+      <c r="O14">
+        <v>42.6034249651398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>35.82741441831215</v>
+      </c>
+      <c r="C15">
+        <v>26.96937845459104</v>
+      </c>
+      <c r="D15">
+        <v>9.582964753337629</v>
+      </c>
+      <c r="E15">
+        <v>11.17232913715253</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1.971523365874501</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>27.25435214462286</v>
+      </c>
+      <c r="N15">
+        <v>13.3859691950947</v>
+      </c>
+      <c r="O15">
+        <v>42.33040271758048</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>34.46945323827037</v>
+      </c>
+      <c r="C16">
+        <v>25.93887885827248</v>
+      </c>
+      <c r="D16">
+        <v>9.221155546603288</v>
+      </c>
+      <c r="E16">
+        <v>10.73341354168061</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1.983092599688837</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>26.22655753287587</v>
+      </c>
+      <c r="N16">
+        <v>13.41941107110091</v>
+      </c>
+      <c r="O16">
+        <v>40.83570116046987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>33.62750096912936</v>
+      </c>
+      <c r="C17">
+        <v>25.30054681541444</v>
+      </c>
+      <c r="D17">
+        <v>8.996866255485465</v>
+      </c>
+      <c r="E17">
+        <v>10.46208873838364</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1.990135802755589</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>25.58968887566582</v>
+      </c>
+      <c r="N17">
+        <v>13.44375849407654</v>
+      </c>
+      <c r="O17">
+        <v>39.9774941172756</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>33.13966388008591</v>
+      </c>
+      <c r="C18">
+        <v>24.9308809131133</v>
+      </c>
+      <c r="D18">
+        <v>8.86692161906589</v>
+      </c>
+      <c r="E18">
+        <v>10.30515426784646</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1.994171637396028</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>25.22080046586349</v>
+      </c>
+      <c r="N18">
+        <v>13.45906554133719</v>
+      </c>
+      <c r="O18">
+        <v>39.48466586400975</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>32.97385103172215</v>
+      </c>
+      <c r="C19">
+        <v>24.80526424587049</v>
+      </c>
+      <c r="D19">
+        <v>8.822755932403778</v>
+      </c>
+      <c r="E19">
+        <v>10.25185822328825</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1.99553589779585</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>25.09543668199081</v>
+      </c>
+      <c r="N19">
+        <v>13.46446274897961</v>
+      </c>
+      <c r="O19">
+        <v>39.31791339603498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>33.71749107537697</v>
+      </c>
+      <c r="C20">
+        <v>25.36875315601742</v>
+      </c>
+      <c r="D20">
+        <v>9.020837681873942</v>
+      </c>
+      <c r="E20">
+        <v>10.49105984732445</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1.989387717689948</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>25.65774624446325</v>
+      </c>
+      <c r="N20">
+        <v>13.44102955802659</v>
+      </c>
+      <c r="O20">
+        <v>40.06876386204225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>36.17553208289363</v>
+      </c>
+      <c r="C21">
+        <v>27.23375303143019</v>
+      </c>
+      <c r="D21">
+        <v>9.675728723241035</v>
+      </c>
+      <c r="E21">
+        <v>11.28511328535173</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1.968515558367982</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>27.51796057541211</v>
+      </c>
+      <c r="N21">
+        <v>13.37861230440378</v>
+      </c>
+      <c r="O21">
+        <v>42.73433856001764</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>37.7571416532874</v>
+      </c>
+      <c r="C22">
+        <v>28.43602396085334</v>
+      </c>
+      <c r="D22">
+        <v>10.09725857241558</v>
+      </c>
+      <c r="E22">
+        <v>11.79894940125412</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1.954631851864001</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>28.71634630415586</v>
+      </c>
+      <c r="N22">
+        <v>13.35182251604094</v>
+      </c>
+      <c r="O22">
+        <v>44.58201702292629</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>36.91490384962823</v>
+      </c>
+      <c r="C23">
+        <v>27.79555397004419</v>
+      </c>
+      <c r="D23">
+        <v>9.872770354532829</v>
+      </c>
+      <c r="E23">
+        <v>11.52502813472836</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1.962069900542327</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>28.07802995273159</v>
+      </c>
+      <c r="N23">
+        <v>13.3647086634637</v>
+      </c>
+      <c r="O23">
+        <v>43.59557622390511</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>33.67681841669194</v>
+      </c>
+      <c r="C24">
+        <v>25.3379254773708</v>
+      </c>
+      <c r="D24">
+        <v>9.010003327168011</v>
+      </c>
+      <c r="E24">
+        <v>10.47796498375562</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>1.989725967578152</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>25.62698611293981</v>
+      </c>
+      <c r="N24">
+        <v>13.44225925628613</v>
+      </c>
+      <c r="O24">
+        <v>40.02749911613998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>30.04511866541042</v>
+      </c>
+      <c r="C25">
+        <v>22.58877554843104</v>
+      </c>
+      <c r="D25">
+        <v>8.042763055583483</v>
+      </c>
+      <c r="E25">
+        <v>9.392905187826067</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2.019013012238171</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>22.88252982119452</v>
+      </c>
+      <c r="N25">
+        <v>13.57486867655139</v>
+      </c>
+      <c r="O25">
+        <v>36.43970650125254</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_59/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.22306802021285</v>
+        <v>17.95148828508777</v>
       </c>
       <c r="C2">
-        <v>20.4561975593008</v>
+        <v>10.2055377982422</v>
       </c>
       <c r="D2">
-        <v>7.291200923683398</v>
+        <v>7.963130327084246</v>
       </c>
       <c r="E2">
-        <v>8.685171611768498</v>
+        <v>6.408434683867653</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.040545564887517</v>
+        <v>2.200309179824882</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>33.05123603756137</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.469834403366535</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.00369510642268</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.592321482541406</v>
       </c>
       <c r="M2">
-        <v>20.75197536992147</v>
+        <v>13.77468664438028</v>
       </c>
       <c r="N2">
-        <v>13.70487014211916</v>
+        <v>20.88151121052052</v>
       </c>
       <c r="O2">
-        <v>33.79975111812173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.20706980670062</v>
+        <v>17.22817495426544</v>
       </c>
       <c r="C3">
-        <v>18.93389830213467</v>
+        <v>9.689034598355189</v>
       </c>
       <c r="D3">
-        <v>6.754143535132565</v>
+        <v>7.827298256792028</v>
       </c>
       <c r="E3">
-        <v>8.201741618623544</v>
+        <v>6.429479794479908</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.055288556025306</v>
+        <v>2.210032016232124</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>32.70010472373703</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.436618044611995</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.42753084172007</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>8.534215415475648</v>
       </c>
       <c r="M3">
-        <v>19.23034467202202</v>
+        <v>13.53534385107432</v>
       </c>
       <c r="N3">
-        <v>13.80940164851414</v>
+        <v>20.91753053809786</v>
       </c>
       <c r="O3">
-        <v>32.00655271672281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.91520615492</v>
+        <v>16.78245190917506</v>
       </c>
       <c r="C4">
-        <v>17.95860998435742</v>
+        <v>9.366656261022712</v>
       </c>
       <c r="D4">
-        <v>6.409839300742218</v>
+        <v>7.747451160503151</v>
       </c>
       <c r="E4">
-        <v>7.902983349805101</v>
+        <v>6.444063812787575</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.064461113814525</v>
+        <v>2.216158411484202</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>32.49881105405773</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.416164410929874</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.07504504649018</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.502549653893281</v>
       </c>
       <c r="M4">
-        <v>18.25515369922675</v>
+        <v>13.39478517938923</v>
       </c>
       <c r="N4">
-        <v>13.88067847646376</v>
+        <v>20.9447927822951</v>
       </c>
       <c r="O4">
-        <v>30.90337651167528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.37479206038989</v>
+        <v>16.60064642653201</v>
       </c>
       <c r="C5">
-        <v>17.55062492514676</v>
+        <v>9.234106641472128</v>
       </c>
       <c r="D5">
-        <v>6.265757829888295</v>
+        <v>7.715814044759768</v>
       </c>
       <c r="E5">
-        <v>7.780786817927578</v>
+        <v>6.450420209619458</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.068235281356822</v>
+        <v>2.218696182510025</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>32.42029285826662</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.407808202296829</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.93189564848898</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.490633253560413</v>
       </c>
       <c r="M5">
-        <v>17.84713162633442</v>
+        <v>13.339127867445</v>
       </c>
       <c r="N5">
-        <v>13.91137768473256</v>
+        <v>20.95715527050098</v>
       </c>
       <c r="O5">
-        <v>30.45342094391227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.28420281047492</v>
+        <v>16.5704548994784</v>
       </c>
       <c r="C6">
-        <v>17.48223300422456</v>
+        <v>9.212030419808594</v>
       </c>
       <c r="D6">
-        <v>6.241602031231531</v>
+        <v>7.710615354786153</v>
       </c>
       <c r="E6">
-        <v>7.760470738984441</v>
+        <v>6.451500514672115</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.068864333737599</v>
+        <v>2.219120118704157</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>32.40746448010959</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.406419201587632</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.90816074038172</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.488713574887907</v>
       </c>
       <c r="M6">
-        <v>17.77872893601104</v>
+        <v>13.32998427611273</v>
       </c>
       <c r="N6">
-        <v>13.91657161428846</v>
+        <v>20.95928257164271</v>
       </c>
       <c r="O6">
-        <v>30.37868835033742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.90797497050693</v>
+        <v>16.7800003740574</v>
       </c>
       <c r="C7">
-        <v>17.95315088505538</v>
+        <v>9.364873212226907</v>
       </c>
       <c r="D7">
-        <v>6.407911597304082</v>
+        <v>7.747020833145416</v>
       </c>
       <c r="E7">
-        <v>7.901337113306004</v>
+        <v>6.44414786995079</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.064511859190242</v>
+        <v>2.21619246750702</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>32.49773802971733</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.416051810120202</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.07311225825278</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8.502384974193419</v>
       </c>
       <c r="M7">
-        <v>18.24969441047496</v>
+        <v>13.39402798483104</v>
       </c>
       <c r="N7">
-        <v>13.88108596306292</v>
+        <v>20.94495448660572</v>
       </c>
       <c r="O7">
-        <v>30.89730960699337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.53891949798103</v>
+        <v>17.70255443794992</v>
       </c>
       <c r="C8">
-        <v>19.93951678713596</v>
+        <v>10.02861101488502</v>
       </c>
       <c r="D8">
-        <v>7.108969555757199</v>
+        <v>7.915562399910524</v>
       </c>
       <c r="E8">
-        <v>8.518894701072787</v>
+        <v>6.415343122239685</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.045607825437472</v>
+        <v>2.203630279988518</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>32.92714580174412</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.458389537347951</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.80486377203312</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.5714412371234</v>
       </c>
       <c r="M8">
-        <v>20.23559219726059</v>
+        <v>13.69084098996876</v>
       </c>
       <c r="N8">
-        <v>13.73935629170123</v>
+        <v>20.89283694796023</v>
       </c>
       <c r="O8">
-        <v>33.1819415928755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31.28978046670508</v>
+        <v>19.49026645505039</v>
       </c>
       <c r="C9">
-        <v>23.53025701415644</v>
+        <v>11.28394912549864</v>
       </c>
       <c r="D9">
-        <v>8.374229153408914</v>
+        <v>8.273947130877897</v>
       </c>
       <c r="E9">
-        <v>9.715260445173419</v>
+        <v>6.372274677573947</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.009178112879968</v>
+        <v>2.180147232107948</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>33.88662781858235</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.541269463665583</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>17.2435739287629</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.739645232727506</v>
       </c>
       <c r="M9">
-        <v>23.82268631601824</v>
+        <v>14.32312301547243</v>
       </c>
       <c r="N9">
-        <v>13.52460098526817</v>
+        <v>20.83347137908942</v>
       </c>
       <c r="O9">
-        <v>37.64688831395468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>34.56506353902974</v>
+        <v>20.78151431636954</v>
       </c>
       <c r="C10">
-        <v>26.01139403426075</v>
+        <v>12.17395648008501</v>
       </c>
       <c r="D10">
-        <v>9.246627038561584</v>
+        <v>8.553891461566762</v>
       </c>
       <c r="E10">
-        <v>10.7642631507756</v>
+        <v>6.349158083526772</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.982286530196887</v>
+        <v>2.163458077650079</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>34.66884929856718</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.602573222599206</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.29598459341859</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.884568801099817</v>
       </c>
       <c r="M10">
-        <v>26.29889648566613</v>
+        <v>14.81772946504516</v>
       </c>
       <c r="N10">
-        <v>13.41681681061201</v>
+        <v>20.81900269142471</v>
       </c>
       <c r="O10">
-        <v>40.93375599278527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.01782280704547</v>
+        <v>21.36291795302979</v>
       </c>
       <c r="C11">
-        <v>27.1139715858523</v>
+        <v>12.57154448585909</v>
       </c>
       <c r="D11">
-        <v>9.633702761764367</v>
+        <v>8.684823558094052</v>
       </c>
       <c r="E11">
-        <v>11.2340044651279</v>
+        <v>6.340578548177275</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.969880333288025</v>
+        <v>2.155953926313364</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>35.04284509958587</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.630678477313353</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.7728228503901</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.955445708537942</v>
       </c>
       <c r="M11">
-        <v>27.39853003315918</v>
+        <v>15.04922952003963</v>
       </c>
       <c r="N11">
-        <v>13.38188196434756</v>
+        <v>20.81949907484837</v>
       </c>
       <c r="O11">
-        <v>42.55121682445671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.56358129169684</v>
+        <v>21.58216673509177</v>
       </c>
       <c r="C12">
-        <v>27.52855614203514</v>
+        <v>12.7210647354448</v>
       </c>
       <c r="D12">
-        <v>9.779140060076648</v>
+        <v>8.734920368833304</v>
       </c>
       <c r="E12">
-        <v>11.41096589775251</v>
+        <v>6.337616096670621</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.965142388756642</v>
+        <v>2.153121749999813</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>35.18720306395648</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.641364548325965</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>18.95307393745164</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.983024551943316</v>
       </c>
       <c r="M12">
-        <v>27.81187290560759</v>
+        <v>15.13783156267063</v>
       </c>
       <c r="N12">
-        <v>13.3710193673369</v>
+        <v>20.82077461916761</v>
       </c>
       <c r="O12">
-        <v>43.18579002077244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.44621906661524</v>
+        <v>21.5349888032697</v>
       </c>
       <c r="C13">
-        <v>27.43938379292173</v>
+        <v>12.68890859590528</v>
       </c>
       <c r="D13">
-        <v>9.747863413483541</v>
+        <v>8.72410813641261</v>
       </c>
       <c r="E13">
-        <v>11.37288812683846</v>
+        <v>6.338241238598423</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.966164842986577</v>
+        <v>2.153731341802812</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>35.15598929561002</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.639060984373889</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>18.91426810925659</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.977051609952937</v>
       </c>
       <c r="M13">
-        <v>27.7229741138697</v>
+        <v>15.118707666337</v>
       </c>
       <c r="N13">
-        <v>13.37324743372524</v>
+        <v>20.82045035251616</v>
       </c>
       <c r="O13">
-        <v>43.04912180099435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.06280395494658</v>
+        <v>21.38097422289849</v>
       </c>
       <c r="C14">
-        <v>27.14813331203298</v>
+        <v>12.58386625629307</v>
       </c>
       <c r="D14">
-        <v>9.645689104453087</v>
+        <v>8.68893470032466</v>
       </c>
       <c r="E14">
-        <v>11.24857917557548</v>
+        <v>6.340329036347654</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.969491438916108</v>
+        <v>2.155720750632125</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>35.05466597159562</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.631556687261827</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.78765871135186</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.957699653814275</v>
       </c>
       <c r="M14">
-        <v>27.43259232368687</v>
+        <v>15.05650001566194</v>
       </c>
       <c r="N14">
-        <v>13.38093867770467</v>
+        <v>20.8195817937736</v>
       </c>
       <c r="O14">
-        <v>42.6034249651398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.82741441831215</v>
+        <v>21.28651555329254</v>
       </c>
       <c r="C15">
-        <v>26.96937845459104</v>
+        <v>12.5193903793863</v>
       </c>
       <c r="D15">
-        <v>9.582964753337629</v>
+        <v>8.667457195438303</v>
       </c>
       <c r="E15">
-        <v>11.17232913715253</v>
+        <v>6.341645425485797</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.971523365874501</v>
+        <v>2.156940456849306</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>34.99296242356804</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.626966095029943</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18.71006473127076</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.945943157082441</v>
       </c>
       <c r="M15">
-        <v>27.25435214462286</v>
+        <v>15.01851842824715</v>
       </c>
       <c r="N15">
-        <v>13.3859691950947</v>
+        <v>20.81919359876288</v>
       </c>
       <c r="O15">
-        <v>42.33040271758048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>34.46945323827037</v>
+        <v>20.74339213991814</v>
       </c>
       <c r="C16">
-        <v>25.93887885827248</v>
+        <v>12.14782684782047</v>
       </c>
       <c r="D16">
-        <v>9.221155546603288</v>
+        <v>8.545406786572713</v>
       </c>
       <c r="E16">
-        <v>10.73341354168061</v>
+        <v>6.349758405427195</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.983092599688837</v>
+        <v>2.16394999738842</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>34.64478336893808</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.600741846272172</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.26477935253883</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.88003873383494</v>
       </c>
       <c r="M16">
-        <v>26.22655753287587</v>
+        <v>14.80273129009653</v>
       </c>
       <c r="N16">
-        <v>13.41941107110091</v>
+        <v>20.81911848985085</v>
       </c>
       <c r="O16">
-        <v>40.83570116046987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>33.62750096912936</v>
+        <v>20.40861832175187</v>
       </c>
       <c r="C17">
-        <v>25.30054681541444</v>
+        <v>11.91801805866744</v>
       </c>
       <c r="D17">
-        <v>8.996866255485465</v>
+        <v>8.471449638962783</v>
       </c>
       <c r="E17">
-        <v>10.46208873838364</v>
+        <v>6.355236837440335</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.990135802755589</v>
+        <v>2.168270481172887</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>34.43592081285645</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.584717939552419</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>17.99108256809225</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.840895211366533</v>
       </c>
       <c r="M17">
-        <v>25.58968887566582</v>
+        <v>14.67201763880983</v>
       </c>
       <c r="N17">
-        <v>13.44375849407654</v>
+        <v>20.82093282116579</v>
       </c>
       <c r="O17">
-        <v>39.9774941172756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.13966388008591</v>
+        <v>20.21550226397685</v>
       </c>
       <c r="C18">
-        <v>24.9308809131133</v>
+        <v>11.7851505838991</v>
       </c>
       <c r="D18">
-        <v>8.86692161906589</v>
+        <v>8.429248540334008</v>
       </c>
       <c r="E18">
-        <v>10.30515426784646</v>
+        <v>6.358569619815248</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.994171637396028</v>
+        <v>2.170763982777762</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>34.31748978061005</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.57552112733466</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.83348050616772</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.818845088143902</v>
       </c>
       <c r="M18">
-        <v>25.22080046586349</v>
+        <v>14.59744588674329</v>
       </c>
       <c r="N18">
-        <v>13.45906554133719</v>
+        <v>20.8226380567596</v>
       </c>
       <c r="O18">
-        <v>39.48466586400975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.97385103172215</v>
+        <v>20.15002205937644</v>
       </c>
       <c r="C19">
-        <v>24.80526424587049</v>
+        <v>11.74004600554055</v>
       </c>
       <c r="D19">
-        <v>8.822755932403778</v>
+        <v>8.415017930929466</v>
       </c>
       <c r="E19">
-        <v>10.25185822328825</v>
+        <v>6.359729024583658</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.99553589779585</v>
+        <v>2.171609785530431</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>34.27767973474062</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.572410291435449</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>17.78009021490411</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.811458224141861</v>
       </c>
       <c r="M19">
-        <v>25.09543668199081</v>
+        <v>14.57230219892966</v>
       </c>
       <c r="N19">
-        <v>13.46446274897961</v>
+        <v>20.82332704981365</v>
       </c>
       <c r="O19">
-        <v>39.31791339603498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.71749107537697</v>
+        <v>20.44431434968045</v>
       </c>
       <c r="C20">
-        <v>25.36875315601742</v>
+        <v>11.9425527710303</v>
       </c>
       <c r="D20">
-        <v>9.020837681873942</v>
+        <v>8.479287627176495</v>
       </c>
       <c r="E20">
-        <v>10.49105984732445</v>
+        <v>6.354634784906456</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.989387717689948</v>
+        <v>2.167809703064115</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>34.457977678594</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.586421589735773</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.02023697883847</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.845013872734881</v>
       </c>
       <c r="M20">
-        <v>25.65774624446325</v>
+        <v>14.68586906854275</v>
       </c>
       <c r="N20">
-        <v>13.44102955802659</v>
+        <v>20.82067071772352</v>
       </c>
       <c r="O20">
-        <v>40.06876386204225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>36.17553208289363</v>
+        <v>21.42623715201766</v>
       </c>
       <c r="C21">
-        <v>27.23375303143019</v>
+        <v>12.61474769498657</v>
       </c>
       <c r="D21">
-        <v>9.675728723241035</v>
+        <v>8.699251971246467</v>
       </c>
       <c r="E21">
-        <v>11.28511328535173</v>
+        <v>6.33970795817934</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.968515558367982</v>
+        <v>2.15513618241762</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>35.08435184260662</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.633759606178199</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.82485576147555</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.963363496916418</v>
       </c>
       <c r="M21">
-        <v>27.51796057541211</v>
+        <v>15.07474638551039</v>
       </c>
       <c r="N21">
-        <v>13.37861230440378</v>
+        <v>20.81980680369605</v>
       </c>
       <c r="O21">
-        <v>42.73433856001764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.7571416532874</v>
+        <v>22.06264180694077</v>
       </c>
       <c r="C22">
-        <v>28.43602396085334</v>
+        <v>13.04804058858391</v>
       </c>
       <c r="D22">
-        <v>10.09725857241558</v>
+        <v>8.84602068846398</v>
       </c>
       <c r="E22">
-        <v>11.79894940125412</v>
+        <v>6.331626266204117</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.954631851864001</v>
+        <v>2.14690686686885</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>35.50972670335661</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.664956275514047</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.34887348005969</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.045035706736357</v>
       </c>
       <c r="M22">
-        <v>28.71634630415586</v>
+        <v>15.33437563642726</v>
       </c>
       <c r="N22">
-        <v>13.35182251604094</v>
+        <v>20.82561894875686</v>
       </c>
       <c r="O22">
-        <v>44.58201702292629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.91490384962823</v>
+        <v>21.72347743974526</v>
       </c>
       <c r="C23">
-        <v>27.79555397004419</v>
+        <v>12.81732538123638</v>
       </c>
       <c r="D23">
-        <v>9.872770354532829</v>
+        <v>8.767410783777855</v>
       </c>
       <c r="E23">
-        <v>11.52502813472836</v>
+        <v>6.335783604913201</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.962069900542327</v>
+        <v>2.151295236098958</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>35.28118738856916</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.648278047801452</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.0693706474205</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.001040314974345</v>
       </c>
       <c r="M23">
-        <v>28.07802995273159</v>
+        <v>15.19530222081591</v>
       </c>
       <c r="N23">
-        <v>13.3647086634637</v>
+        <v>20.82190852077944</v>
       </c>
       <c r="O23">
-        <v>43.59557622390511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.67681841669194</v>
+        <v>20.42817819585683</v>
       </c>
       <c r="C24">
-        <v>25.3379254773708</v>
+        <v>11.93146295574098</v>
       </c>
       <c r="D24">
-        <v>9.010003327168011</v>
+        <v>8.47574308262462</v>
       </c>
       <c r="E24">
-        <v>10.47796498375562</v>
+        <v>6.354906402951807</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.989725967578152</v>
+        <v>2.168017990717956</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>34.44800064915137</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.585651321947521</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.00705704522751</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.843150413831999</v>
       </c>
       <c r="M24">
-        <v>25.62698611293981</v>
+        <v>14.67960503921323</v>
       </c>
       <c r="N24">
-        <v>13.44225925628613</v>
+        <v>20.82078715742412</v>
       </c>
       <c r="O24">
-        <v>40.02749911613998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.04511866541042</v>
+        <v>19.0100097092915</v>
       </c>
       <c r="C25">
-        <v>22.58877554843104</v>
+        <v>10.9498280776879</v>
       </c>
       <c r="D25">
-        <v>8.042763055583483</v>
+        <v>8.174051411110518</v>
       </c>
       <c r="E25">
-        <v>9.392905187826067</v>
+        <v>6.382455470718217</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.019013012238171</v>
+        <v>2.186390267933989</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>33.61391963769555</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.518815242317798</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.85476752262851</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.690494060795245</v>
       </c>
       <c r="M25">
-        <v>22.88252982119452</v>
+        <v>14.1467625255143</v>
       </c>
       <c r="N25">
-        <v>13.57486867655139</v>
+        <v>20.8446483664204</v>
       </c>
       <c r="O25">
-        <v>36.43970650125254</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_59/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.95148828508777</v>
+        <v>23.79854181694116</v>
       </c>
       <c r="C2">
-        <v>10.2055377982422</v>
+        <v>10.65238226175392</v>
       </c>
       <c r="D2">
-        <v>7.963130327084246</v>
+        <v>12.43105119600247</v>
       </c>
       <c r="E2">
-        <v>6.408434683867653</v>
+        <v>11.34510114690246</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.200309179824882</v>
+        <v>3.852433114933596</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>33.05123603756137</v>
+        <v>45.48020209702018</v>
       </c>
       <c r="J2">
-        <v>4.469834403366535</v>
+        <v>7.184983035267148</v>
       </c>
       <c r="K2">
-        <v>16.00369510642268</v>
+        <v>21.75092396705796</v>
       </c>
       <c r="L2">
-        <v>8.592321482541406</v>
+        <v>14.1892764718536</v>
       </c>
       <c r="M2">
-        <v>13.77468664438028</v>
+        <v>21.87761237303273</v>
       </c>
       <c r="N2">
-        <v>20.88151121052052</v>
+        <v>29.35031405693727</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.22817495426544</v>
+        <v>23.73877775117528</v>
       </c>
       <c r="C3">
-        <v>9.689034598355189</v>
+        <v>10.55425637808902</v>
       </c>
       <c r="D3">
-        <v>7.827298256792028</v>
+        <v>12.43953632187688</v>
       </c>
       <c r="E3">
-        <v>6.429479794479908</v>
+        <v>11.36402219750183</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.210032016232124</v>
+        <v>3.855924324268384</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>32.70010472373703</v>
+        <v>45.46897988540396</v>
       </c>
       <c r="J3">
-        <v>4.436618044611995</v>
+        <v>7.176801046840313</v>
       </c>
       <c r="K3">
-        <v>15.42753084172007</v>
+        <v>21.71043370143645</v>
       </c>
       <c r="L3">
-        <v>8.534215415475648</v>
+        <v>14.20944476368527</v>
       </c>
       <c r="M3">
-        <v>13.53534385107432</v>
+        <v>21.89564302319829</v>
       </c>
       <c r="N3">
-        <v>20.91753053809786</v>
+        <v>29.36634804482702</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.78245190917506</v>
+        <v>23.70754924347911</v>
       </c>
       <c r="C4">
-        <v>9.366656261022712</v>
+        <v>10.49637386890186</v>
       </c>
       <c r="D4">
-        <v>7.747451160503151</v>
+        <v>12.44673780338099</v>
       </c>
       <c r="E4">
-        <v>6.444063812787575</v>
+        <v>11.3765111352738</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.216158411484202</v>
+        <v>3.858180330190594</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.49881105405773</v>
+        <v>45.46765934141258</v>
       </c>
       <c r="J4">
-        <v>4.416164410929874</v>
+        <v>7.171642133963439</v>
       </c>
       <c r="K4">
-        <v>15.07504504649018</v>
+        <v>21.69028350382921</v>
       </c>
       <c r="L4">
-        <v>8.502549653893281</v>
+        <v>14.22365102108455</v>
       </c>
       <c r="M4">
-        <v>13.39478517938923</v>
+        <v>21.91030613431866</v>
       </c>
       <c r="N4">
-        <v>20.9447927822951</v>
+        <v>29.37792904039561</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.60064642653201</v>
+        <v>23.69620690623039</v>
       </c>
       <c r="C5">
-        <v>9.234106641472128</v>
+        <v>10.47340423782687</v>
       </c>
       <c r="D5">
-        <v>7.715814044759768</v>
+        <v>12.4501735016592</v>
       </c>
       <c r="E5">
-        <v>6.450420209619458</v>
+        <v>11.38182009121422</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.218696182510025</v>
+        <v>3.859128034222175</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.42029285826662</v>
+        <v>45.4685230619642</v>
       </c>
       <c r="J5">
-        <v>4.407808202296829</v>
+        <v>7.169505733651531</v>
       </c>
       <c r="K5">
-        <v>14.93189564848898</v>
+        <v>21.68326214155121</v>
       </c>
       <c r="L5">
-        <v>8.490633253560413</v>
+        <v>14.22989875531688</v>
       </c>
       <c r="M5">
-        <v>13.339127867445</v>
+        <v>21.91718506861973</v>
       </c>
       <c r="N5">
-        <v>20.95715527050098</v>
+        <v>29.3830850631808</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.5704548994784</v>
+        <v>23.69440731307435</v>
       </c>
       <c r="C6">
-        <v>9.212030419808594</v>
+        <v>10.46962810943754</v>
       </c>
       <c r="D6">
-        <v>7.710615354786153</v>
+        <v>12.45077426249323</v>
       </c>
       <c r="E6">
-        <v>6.451500514672115</v>
+        <v>11.38271491829601</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.219120118704157</v>
+        <v>3.85928711582843</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.40746448010959</v>
+        <v>45.46875117819651</v>
       </c>
       <c r="J6">
-        <v>4.406419201587632</v>
+        <v>7.169148922837511</v>
       </c>
       <c r="K6">
-        <v>14.90816074038172</v>
+        <v>21.68216826095267</v>
       </c>
       <c r="L6">
-        <v>8.488713574887907</v>
+        <v>14.23096388833176</v>
       </c>
       <c r="M6">
-        <v>13.32998427611273</v>
+        <v>21.9183818900343</v>
       </c>
       <c r="N6">
-        <v>20.95928257164271</v>
+        <v>29.38396759410629</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.7800003740574</v>
+        <v>23.70739066427235</v>
       </c>
       <c r="C7">
-        <v>9.364873212226907</v>
+        <v>10.49606156129536</v>
       </c>
       <c r="D7">
-        <v>7.747020833145416</v>
+        <v>12.44678210951046</v>
       </c>
       <c r="E7">
-        <v>6.44414786995079</v>
+        <v>11.37658184382837</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.21619246750702</v>
+        <v>3.858192996282592</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.49773802971733</v>
+        <v>45.46766531261277</v>
       </c>
       <c r="J7">
-        <v>4.416051810120202</v>
+        <v>7.171613459952543</v>
       </c>
       <c r="K7">
-        <v>15.07311225825278</v>
+        <v>21.6901839866585</v>
       </c>
       <c r="L7">
-        <v>8.502384974193419</v>
+        <v>14.22373342325745</v>
       </c>
       <c r="M7">
-        <v>13.39402798483104</v>
+        <v>21.91039524719124</v>
       </c>
       <c r="N7">
-        <v>20.94495448660572</v>
+        <v>29.37799680816933</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.70255443794992</v>
+        <v>23.77680623282883</v>
       </c>
       <c r="C8">
-        <v>10.02861101488502</v>
+        <v>10.61807116539671</v>
       </c>
       <c r="D8">
-        <v>7.915562399910524</v>
+        <v>12.43356369227576</v>
       </c>
       <c r="E8">
-        <v>6.415343122239685</v>
+        <v>11.35144458429976</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.203630279988518</v>
+        <v>3.85361361908532</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>32.92714580174412</v>
+        <v>45.47517750080469</v>
       </c>
       <c r="J8">
-        <v>4.458389537347951</v>
+        <v>7.182189860699115</v>
       </c>
       <c r="K8">
-        <v>15.80486377203312</v>
+        <v>21.73598868590526</v>
       </c>
       <c r="L8">
-        <v>8.5714412371234</v>
+        <v>14.19585229755743</v>
       </c>
       <c r="M8">
-        <v>13.69084098996876</v>
+        <v>21.88308401910239</v>
       </c>
       <c r="N8">
-        <v>20.89283694796023</v>
+        <v>29.3554823341564</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.49026645505039</v>
+        <v>23.95585841484185</v>
       </c>
       <c r="C9">
-        <v>11.28394912549864</v>
+        <v>10.87505735529182</v>
       </c>
       <c r="D9">
-        <v>8.273947130877897</v>
+        <v>12.42343057121172</v>
       </c>
       <c r="E9">
-        <v>6.372274677573947</v>
+        <v>11.30904159846387</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.180147232107948</v>
+        <v>3.845520578257439</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.88662781858235</v>
+        <v>45.53403804889994</v>
       </c>
       <c r="J9">
-        <v>4.541269463665583</v>
+        <v>7.201863786065813</v>
       </c>
       <c r="K9">
-        <v>17.2435739287629</v>
+        <v>21.86291210451408</v>
       </c>
       <c r="L9">
-        <v>8.739645232727506</v>
+        <v>14.15563169085322</v>
       </c>
       <c r="M9">
-        <v>14.32312301547243</v>
+        <v>21.85800970066493</v>
       </c>
       <c r="N9">
-        <v>20.83347137908942</v>
+        <v>29.32510196508143</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.78151431636954</v>
+        <v>24.11289173401076</v>
       </c>
       <c r="C10">
-        <v>12.17395648008501</v>
+        <v>11.07318537814879</v>
       </c>
       <c r="D10">
-        <v>8.553891461566762</v>
+        <v>12.42558607573547</v>
       </c>
       <c r="E10">
-        <v>6.349158083526772</v>
+        <v>11.28205842782248</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.163458077650079</v>
+        <v>3.840108913866524</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>34.66884929856718</v>
+        <v>45.60408062248519</v>
       </c>
       <c r="J10">
-        <v>4.602573222599206</v>
+        <v>7.215677033136664</v>
       </c>
       <c r="K10">
-        <v>18.29598459341859</v>
+        <v>21.97834559362354</v>
       </c>
       <c r="L10">
-        <v>8.884568801099817</v>
+        <v>14.13488006663891</v>
       </c>
       <c r="M10">
-        <v>14.81772946504516</v>
+        <v>21.85691549722472</v>
       </c>
       <c r="N10">
-        <v>20.81900269142471</v>
+        <v>29.31117203138906</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.36291795302979</v>
+        <v>24.18969022732574</v>
       </c>
       <c r="C11">
-        <v>12.57154448585909</v>
+        <v>11.16501102038851</v>
       </c>
       <c r="D11">
-        <v>8.684823558094052</v>
+        <v>12.42864329765253</v>
       </c>
       <c r="E11">
-        <v>6.340578548177275</v>
+        <v>11.27068214981141</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.155953926313364</v>
+        <v>3.837761636023826</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>35.04284509958587</v>
+        <v>45.64173228432094</v>
       </c>
       <c r="J11">
-        <v>4.630678477313353</v>
+        <v>7.221823730948143</v>
       </c>
       <c r="K11">
-        <v>18.7728228503901</v>
+        <v>22.03556307875191</v>
       </c>
       <c r="L11">
-        <v>8.955445708537942</v>
+        <v>14.12734650457492</v>
       </c>
       <c r="M11">
-        <v>15.04922952003963</v>
+        <v>21.86016788672198</v>
       </c>
       <c r="N11">
-        <v>20.81949907484837</v>
+        <v>29.30665573110152</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.58216673509177</v>
+        <v>24.21952638020245</v>
       </c>
       <c r="C12">
-        <v>12.7210647354448</v>
+        <v>11.19999839600001</v>
       </c>
       <c r="D12">
-        <v>8.734920368833304</v>
+        <v>12.43009864873355</v>
       </c>
       <c r="E12">
-        <v>6.337616096670621</v>
+        <v>11.26650294558402</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.153121749999813</v>
+        <v>3.836889143885934</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>35.18720306395648</v>
+        <v>45.6568187385974</v>
       </c>
       <c r="J12">
-        <v>4.641364548325965</v>
+        <v>7.224131752768022</v>
       </c>
       <c r="K12">
-        <v>18.95307393745164</v>
+        <v>22.0578954594321</v>
       </c>
       <c r="L12">
-        <v>8.983024551943316</v>
+        <v>14.12476748394234</v>
       </c>
       <c r="M12">
-        <v>15.13783156267063</v>
+        <v>21.86193720474363</v>
       </c>
       <c r="N12">
-        <v>20.82077461916761</v>
+        <v>29.30520713748702</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.5349888032697</v>
+        <v>24.21306736935513</v>
       </c>
       <c r="C13">
-        <v>12.68890859590528</v>
+        <v>11.19245413891056</v>
       </c>
       <c r="D13">
-        <v>8.72410813641261</v>
+        <v>12.42977199202459</v>
       </c>
       <c r="E13">
-        <v>6.338241238598423</v>
+        <v>11.26739729327095</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.153731341802812</v>
+        <v>3.837076324097787</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>35.15598929561002</v>
+        <v>45.65353281572727</v>
       </c>
       <c r="J13">
-        <v>4.639060984373889</v>
+        <v>7.223635549020252</v>
       </c>
       <c r="K13">
-        <v>18.91426810925659</v>
+        <v>22.05305638064418</v>
       </c>
       <c r="L13">
-        <v>8.977051609952937</v>
+        <v>14.12531075236868</v>
       </c>
       <c r="M13">
-        <v>15.118707666337</v>
+        <v>21.8615322632913</v>
       </c>
       <c r="N13">
-        <v>20.82045035251616</v>
+        <v>29.30550748460489</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.38097422289849</v>
+        <v>24.19212985121966</v>
       </c>
       <c r="C14">
-        <v>12.58386625629307</v>
+        <v>11.16788531025345</v>
       </c>
       <c r="D14">
-        <v>8.68893470032466</v>
+        <v>12.42875707108466</v>
       </c>
       <c r="E14">
-        <v>6.340329036347654</v>
+        <v>11.27033574652855</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.155720750632125</v>
+        <v>3.837689528019111</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35.05466597159562</v>
+        <v>45.64295687372423</v>
       </c>
       <c r="J14">
-        <v>4.631556687261827</v>
+        <v>7.222014005500974</v>
       </c>
       <c r="K14">
-        <v>18.78765871135186</v>
+        <v>22.03738711082259</v>
       </c>
       <c r="L14">
-        <v>8.957699653814275</v>
+        <v>14.12712884242347</v>
       </c>
       <c r="M14">
-        <v>15.05650001566194</v>
+        <v>21.86030268295021</v>
       </c>
       <c r="N14">
-        <v>20.8195817937736</v>
+        <v>29.30653131192295</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.28651555329254</v>
+        <v>24.1794027152653</v>
       </c>
       <c r="C15">
-        <v>12.5193903793863</v>
+        <v>11.15286333082681</v>
       </c>
       <c r="D15">
-        <v>8.667457195438303</v>
+        <v>12.42817413367444</v>
       </c>
       <c r="E15">
-        <v>6.341645425485797</v>
+        <v>11.2721523868966</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.156940456849306</v>
+        <v>3.838067262274917</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>34.99296242356804</v>
+        <v>45.63658658747758</v>
       </c>
       <c r="J15">
-        <v>4.626966095029943</v>
+        <v>7.221018213928778</v>
       </c>
       <c r="K15">
-        <v>18.71006473127076</v>
+        <v>22.02787552655549</v>
       </c>
       <c r="L15">
-        <v>8.945943157082441</v>
+        <v>14.12827811690679</v>
       </c>
       <c r="M15">
-        <v>15.01851842824715</v>
+        <v>21.85961950433702</v>
       </c>
       <c r="N15">
-        <v>20.81919359876288</v>
+        <v>29.30719250284816</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.74339213991814</v>
+        <v>24.10797926816976</v>
       </c>
       <c r="C16">
-        <v>12.14782684782047</v>
+        <v>11.06721602192048</v>
       </c>
       <c r="D16">
-        <v>8.545406786572713</v>
+        <v>12.4254279871028</v>
       </c>
       <c r="E16">
-        <v>6.349758405427195</v>
+        <v>11.28281993527064</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.16394999738842</v>
+        <v>3.840264610106441</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>34.64478336893808</v>
+        <v>45.60173616785477</v>
       </c>
       <c r="J16">
-        <v>4.600741846272172</v>
+        <v>7.215272583735804</v>
       </c>
       <c r="K16">
-        <v>18.26477935253883</v>
+        <v>21.97470004525139</v>
       </c>
       <c r="L16">
-        <v>8.88003873383494</v>
+        <v>14.13541073492728</v>
       </c>
       <c r="M16">
-        <v>14.80273129009653</v>
+        <v>21.85677828125935</v>
       </c>
       <c r="N16">
-        <v>20.81911848985085</v>
+        <v>29.31150380266329</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.40861832175187</v>
+        <v>24.06552523859168</v>
       </c>
       <c r="C17">
-        <v>11.91801805866744</v>
+        <v>11.01508811718444</v>
       </c>
       <c r="D17">
-        <v>8.471449638962783</v>
+        <v>12.42427455442887</v>
       </c>
       <c r="E17">
-        <v>6.355236837440335</v>
+        <v>11.2895939316285</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.168270481172887</v>
+        <v>3.841641873402202</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>34.43592081285645</v>
+        <v>45.581836665053</v>
       </c>
       <c r="J17">
-        <v>4.584717939552419</v>
+        <v>7.21171280650937</v>
       </c>
       <c r="K17">
-        <v>17.99108256809225</v>
+        <v>21.94327617813033</v>
       </c>
       <c r="L17">
-        <v>8.840895211366533</v>
+        <v>14.14027440694358</v>
       </c>
       <c r="M17">
-        <v>14.67201763880983</v>
+        <v>21.85599475995812</v>
       </c>
       <c r="N17">
-        <v>20.82093282116579</v>
+        <v>29.31461481626426</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.21550226397685</v>
+        <v>24.04161271312897</v>
       </c>
       <c r="C18">
-        <v>11.7851505838991</v>
+        <v>10.98526693176301</v>
       </c>
       <c r="D18">
-        <v>8.429248540334008</v>
+        <v>12.42380666460985</v>
       </c>
       <c r="E18">
-        <v>6.358569619815248</v>
+        <v>11.29357475362035</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.170763982777762</v>
+        <v>3.842444823274141</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>34.31748978061005</v>
+        <v>45.57093614247677</v>
       </c>
       <c r="J18">
-        <v>4.57552112733466</v>
+        <v>7.209652413951277</v>
       </c>
       <c r="K18">
-        <v>17.83348050616772</v>
+        <v>21.92564571361892</v>
       </c>
       <c r="L18">
-        <v>8.818845088143902</v>
+        <v>14.14325133251209</v>
       </c>
       <c r="M18">
-        <v>14.59744588674329</v>
+        <v>21.85589719072392</v>
       </c>
       <c r="N18">
-        <v>20.8226380567596</v>
+        <v>29.31657555351393</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.15002205937644</v>
+        <v>24.03360373167596</v>
       </c>
       <c r="C19">
-        <v>11.74004600554055</v>
+        <v>10.97519858969158</v>
       </c>
       <c r="D19">
-        <v>8.415017930929466</v>
+        <v>12.42368185557513</v>
       </c>
       <c r="E19">
-        <v>6.359729024583658</v>
+        <v>11.29493713541149</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.171609785530431</v>
+        <v>3.84271854348046</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>34.27767973474062</v>
+        <v>45.56733915132424</v>
       </c>
       <c r="J19">
-        <v>4.572410291435449</v>
+        <v>7.2089525811749</v>
       </c>
       <c r="K19">
-        <v>17.78009021490411</v>
+        <v>21.91975288100593</v>
       </c>
       <c r="L19">
-        <v>8.811458224141861</v>
+        <v>14.14429010293868</v>
       </c>
       <c r="M19">
-        <v>14.57230219892966</v>
+        <v>21.85592484242521</v>
       </c>
       <c r="N19">
-        <v>20.82332704981365</v>
+        <v>29.31726886173337</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.44431434968045</v>
+        <v>24.06999230229608</v>
       </c>
       <c r="C20">
-        <v>11.9425527710303</v>
+        <v>11.02062072545446</v>
       </c>
       <c r="D20">
-        <v>8.479287627176495</v>
+        <v>12.42437710886542</v>
       </c>
       <c r="E20">
-        <v>6.354634784906456</v>
+        <v>11.28886407586704</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.167809703064115</v>
+        <v>3.841494145924489</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>34.457977678594</v>
+        <v>45.58389860725234</v>
       </c>
       <c r="J20">
-        <v>4.586421589735773</v>
+        <v>7.212093085502827</v>
       </c>
       <c r="K20">
-        <v>18.02023697883847</v>
+        <v>21.94657545949121</v>
       </c>
       <c r="L20">
-        <v>8.845013872734881</v>
+        <v>14.13973808883708</v>
       </c>
       <c r="M20">
-        <v>14.68586906854275</v>
+        <v>21.85604163405036</v>
       </c>
       <c r="N20">
-        <v>20.82067071772352</v>
+        <v>29.31426590914647</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.42623715201766</v>
+        <v>24.19825937951995</v>
       </c>
       <c r="C21">
-        <v>12.61474769498657</v>
+        <v>11.17509616718308</v>
       </c>
       <c r="D21">
-        <v>8.699251971246467</v>
+        <v>12.42904710842066</v>
       </c>
       <c r="E21">
-        <v>6.33970795817934</v>
+        <v>11.26946916110206</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.15513618241762</v>
+        <v>3.837508971620969</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>35.08435184260662</v>
+        <v>45.6460408298126</v>
       </c>
       <c r="J21">
-        <v>4.633759606178199</v>
+        <v>7.222490823238094</v>
       </c>
       <c r="K21">
-        <v>18.82485576147555</v>
+        <v>22.04197159280145</v>
       </c>
       <c r="L21">
-        <v>8.963363496916418</v>
+        <v>14.12658739831139</v>
       </c>
       <c r="M21">
-        <v>15.07474638551039</v>
+        <v>21.86064926095123</v>
       </c>
       <c r="N21">
-        <v>20.81980680369605</v>
+        <v>29.30622348976478</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.06264180694077</v>
+        <v>24.28647686306668</v>
       </c>
       <c r="C22">
-        <v>13.04804058858391</v>
+        <v>11.27729446424002</v>
       </c>
       <c r="D22">
-        <v>8.84602068846398</v>
+        <v>12.43383358152142</v>
       </c>
       <c r="E22">
-        <v>6.331626266204117</v>
+        <v>11.25754367908475</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.14690686686885</v>
+        <v>3.83499980854147</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>35.50972670335661</v>
+        <v>45.69148186731567</v>
       </c>
       <c r="J22">
-        <v>4.664956275514047</v>
+        <v>7.22917215364776</v>
       </c>
       <c r="K22">
-        <v>19.34887348005969</v>
+        <v>22.10819079055446</v>
       </c>
       <c r="L22">
-        <v>9.045035706736357</v>
+        <v>14.11958822860165</v>
       </c>
       <c r="M22">
-        <v>15.33437563642726</v>
+        <v>21.86679388210693</v>
       </c>
       <c r="N22">
-        <v>20.82561894875686</v>
+        <v>29.30249220281398</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.72347743974526</v>
+        <v>24.23899798736771</v>
       </c>
       <c r="C23">
-        <v>12.81732538123638</v>
+        <v>11.22264547259915</v>
       </c>
       <c r="D23">
-        <v>8.767410783777855</v>
+        <v>12.4311206180088</v>
       </c>
       <c r="E23">
-        <v>6.335783604913201</v>
+        <v>11.26384003905115</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.151295236098958</v>
+        <v>3.836330300569245</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>35.28118738856916</v>
+        <v>45.6667888148929</v>
       </c>
       <c r="J23">
-        <v>4.648278047801452</v>
+        <v>7.225616616580331</v>
       </c>
       <c r="K23">
-        <v>19.0693706474205</v>
+        <v>22.07249803922535</v>
       </c>
       <c r="L23">
-        <v>9.001040314974345</v>
+        <v>14.12317795834505</v>
       </c>
       <c r="M23">
-        <v>15.19530222081591</v>
+        <v>21.86322826983319</v>
       </c>
       <c r="N23">
-        <v>20.82190852077944</v>
+        <v>29.30434418951004</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.42817819585683</v>
+        <v>24.06797120007772</v>
       </c>
       <c r="C24">
-        <v>11.93146295574098</v>
+        <v>11.01811897056142</v>
       </c>
       <c r="D24">
-        <v>8.47574308262462</v>
+        <v>12.42433013581715</v>
       </c>
       <c r="E24">
-        <v>6.354906402951807</v>
+        <v>11.2891937746241</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.168017990717956</v>
+        <v>3.841560898800407</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>34.44800064915137</v>
+        <v>45.58296472089826</v>
       </c>
       <c r="J24">
-        <v>4.585651321947521</v>
+        <v>7.211921204457431</v>
       </c>
       <c r="K24">
-        <v>18.00705704522751</v>
+        <v>21.94508249688965</v>
       </c>
       <c r="L24">
-        <v>8.843150413831999</v>
+        <v>14.13997999525838</v>
       </c>
       <c r="M24">
-        <v>14.67960503921323</v>
+        <v>21.85601934295179</v>
       </c>
       <c r="N24">
-        <v>20.82078715742412</v>
+        <v>29.31442311369303</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.0100097092915</v>
+        <v>23.90288983805125</v>
       </c>
       <c r="C25">
-        <v>10.9498280776879</v>
+        <v>10.80378818713066</v>
       </c>
       <c r="D25">
-        <v>8.174051411110518</v>
+        <v>12.42448359142259</v>
       </c>
       <c r="E25">
-        <v>6.382455470718217</v>
+        <v>11.31977817390588</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.186390267933989</v>
+        <v>3.847615664554892</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>33.61391963769555</v>
+        <v>45.51339927424979</v>
       </c>
       <c r="J25">
-        <v>4.518815242317798</v>
+        <v>7.196654703526925</v>
       </c>
       <c r="K25">
-        <v>16.85476752262851</v>
+        <v>21.82464497929818</v>
       </c>
       <c r="L25">
-        <v>8.690494060795245</v>
+        <v>14.16496619053165</v>
       </c>
       <c r="M25">
-        <v>14.1467625255143</v>
+        <v>21.86174642690338</v>
       </c>
       <c r="N25">
-        <v>20.8446483664204</v>
+        <v>29.33184679790965</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_59/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.79854181694116</v>
+        <v>17.95148828508765</v>
       </c>
       <c r="C2">
-        <v>10.65238226175392</v>
+        <v>10.20553779824226</v>
       </c>
       <c r="D2">
-        <v>12.43105119600247</v>
+        <v>7.963130327084208</v>
       </c>
       <c r="E2">
-        <v>11.34510114690246</v>
+        <v>6.408434683867649</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.852433114933596</v>
+        <v>2.200309179825018</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>45.48020209702018</v>
+        <v>33.05123603756111</v>
       </c>
       <c r="J2">
-        <v>7.184983035267148</v>
+        <v>4.46983440336654</v>
       </c>
       <c r="K2">
-        <v>21.75092396705796</v>
+        <v>16.00369510642259</v>
       </c>
       <c r="L2">
-        <v>14.1892764718536</v>
+        <v>8.592321482541362</v>
       </c>
       <c r="M2">
-        <v>21.87761237303273</v>
+        <v>13.77468664438016</v>
       </c>
       <c r="N2">
-        <v>29.35031405693727</v>
+        <v>20.8815112105204</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.73877775117528</v>
+        <v>17.22817495426546</v>
       </c>
       <c r="C3">
-        <v>10.55425637808902</v>
+        <v>9.689034598355171</v>
       </c>
       <c r="D3">
-        <v>12.43953632187688</v>
+        <v>7.82729825679207</v>
       </c>
       <c r="E3">
-        <v>11.36402219750183</v>
+        <v>6.429479794479853</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.855924324268384</v>
+        <v>2.210032016232124</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>45.46897988540396</v>
+        <v>32.70010472373709</v>
       </c>
       <c r="J3">
-        <v>7.176801046840313</v>
+        <v>4.436618044611926</v>
       </c>
       <c r="K3">
-        <v>21.71043370143645</v>
+        <v>15.4275308417201</v>
       </c>
       <c r="L3">
-        <v>14.20944476368527</v>
+        <v>8.534215415475591</v>
       </c>
       <c r="M3">
-        <v>21.89564302319829</v>
+        <v>13.53534385107432</v>
       </c>
       <c r="N3">
-        <v>29.36634804482702</v>
+        <v>20.91753053809789</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.70754924347911</v>
+        <v>16.78245190917508</v>
       </c>
       <c r="C4">
-        <v>10.49637386890186</v>
+        <v>9.366656261022722</v>
       </c>
       <c r="D4">
-        <v>12.44673780338099</v>
+        <v>7.747451160503134</v>
       </c>
       <c r="E4">
-        <v>11.3765111352738</v>
+        <v>6.444063812787388</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.858180330190594</v>
+        <v>2.216158411484201</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>45.46765934141258</v>
+        <v>32.49881105405781</v>
       </c>
       <c r="J4">
-        <v>7.171642133963439</v>
+        <v>4.41616441092967</v>
       </c>
       <c r="K4">
-        <v>21.69028350382921</v>
+        <v>15.07504504649018</v>
       </c>
       <c r="L4">
-        <v>14.22365102108455</v>
+        <v>8.502549653893174</v>
       </c>
       <c r="M4">
-        <v>21.91030613431866</v>
+        <v>13.39478517938918</v>
       </c>
       <c r="N4">
-        <v>29.37792904039561</v>
+        <v>20.94479278229521</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.69620690623039</v>
+        <v>16.60064642653195</v>
       </c>
       <c r="C5">
-        <v>10.47340423782687</v>
+        <v>9.23410664147211</v>
       </c>
       <c r="D5">
-        <v>12.4501735016592</v>
+        <v>7.715814044759823</v>
       </c>
       <c r="E5">
-        <v>11.38182009121422</v>
+        <v>6.450420209619463</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.859128034222175</v>
+        <v>2.21869618250976</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>45.4685230619642</v>
+        <v>32.42029285826649</v>
       </c>
       <c r="J5">
-        <v>7.169505733651531</v>
+        <v>4.407808202296764</v>
       </c>
       <c r="K5">
-        <v>21.68326214155121</v>
+        <v>14.93189564848893</v>
       </c>
       <c r="L5">
-        <v>14.22989875531688</v>
+        <v>8.490633253560407</v>
       </c>
       <c r="M5">
-        <v>21.91718506861973</v>
+        <v>13.33912786744495</v>
       </c>
       <c r="N5">
-        <v>29.3830850631808</v>
+        <v>20.95715527050094</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.69440731307435</v>
+        <v>16.57045489947845</v>
       </c>
       <c r="C6">
-        <v>10.46962810943754</v>
+        <v>9.212030419808483</v>
       </c>
       <c r="D6">
-        <v>12.45077426249323</v>
+        <v>7.710615354786309</v>
       </c>
       <c r="E6">
-        <v>11.38271491829601</v>
+        <v>6.451500514672237</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.85928711582843</v>
+        <v>2.21912011870416</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>45.46875117819651</v>
+        <v>32.40746448010973</v>
       </c>
       <c r="J6">
-        <v>7.169148922837511</v>
+        <v>4.406419201587601</v>
       </c>
       <c r="K6">
-        <v>21.68216826095267</v>
+        <v>14.90816074038173</v>
       </c>
       <c r="L6">
-        <v>14.23096388833176</v>
+        <v>8.488713574887935</v>
       </c>
       <c r="M6">
-        <v>21.9183818900343</v>
+        <v>13.32998427611276</v>
       </c>
       <c r="N6">
-        <v>29.38396759410629</v>
+        <v>20.9592825716428</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.70739066427235</v>
+        <v>16.78000037405738</v>
       </c>
       <c r="C7">
-        <v>10.49606156129536</v>
+        <v>9.36487321222687</v>
       </c>
       <c r="D7">
-        <v>12.44678210951046</v>
+        <v>7.747020833145331</v>
       </c>
       <c r="E7">
-        <v>11.37658184382837</v>
+        <v>6.444147869950847</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.858192996282592</v>
+        <v>2.216192467507284</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>45.46766531261277</v>
+        <v>32.49773802971719</v>
       </c>
       <c r="J7">
-        <v>7.171613459952543</v>
+        <v>4.416051810120304</v>
       </c>
       <c r="K7">
-        <v>21.6901839866585</v>
+        <v>15.0731122582527</v>
       </c>
       <c r="L7">
-        <v>14.22373342325745</v>
+        <v>8.502384974193363</v>
       </c>
       <c r="M7">
-        <v>21.91039524719124</v>
+        <v>13.39402798483096</v>
       </c>
       <c r="N7">
-        <v>29.37799680816933</v>
+        <v>20.9449544866057</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.77680623282883</v>
+        <v>17.70255443794984</v>
       </c>
       <c r="C8">
-        <v>10.61807116539671</v>
+        <v>10.02861101488505</v>
       </c>
       <c r="D8">
-        <v>12.43356369227576</v>
+        <v>7.91556239991046</v>
       </c>
       <c r="E8">
-        <v>11.35144458429976</v>
+        <v>6.415343122239571</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.85361361908532</v>
+        <v>2.203630279988387</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>45.47517750080469</v>
+        <v>32.92714580174404</v>
       </c>
       <c r="J8">
-        <v>7.182189860699115</v>
+        <v>4.458389537347919</v>
       </c>
       <c r="K8">
-        <v>21.73598868590526</v>
+        <v>15.80486377203307</v>
       </c>
       <c r="L8">
-        <v>14.19585229755743</v>
+        <v>8.571441237123372</v>
       </c>
       <c r="M8">
-        <v>21.88308401910239</v>
+        <v>13.69084098996868</v>
       </c>
       <c r="N8">
-        <v>29.3554823341564</v>
+        <v>20.89283694796021</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.95585841484185</v>
+        <v>19.49026645505037</v>
       </c>
       <c r="C9">
-        <v>10.87505735529182</v>
+        <v>11.28394912549873</v>
       </c>
       <c r="D9">
-        <v>12.42343057121172</v>
+        <v>8.273947130878007</v>
       </c>
       <c r="E9">
-        <v>11.30904159846387</v>
+        <v>6.37227467757395</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.845520578257439</v>
+        <v>2.180147232107684</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>45.53403804889994</v>
+        <v>33.88662781858231</v>
       </c>
       <c r="J9">
-        <v>7.201863786065813</v>
+        <v>4.541269463665517</v>
       </c>
       <c r="K9">
-        <v>21.86291210451408</v>
+        <v>17.24357392876291</v>
       </c>
       <c r="L9">
-        <v>14.15563169085322</v>
+        <v>8.739645232727566</v>
       </c>
       <c r="M9">
-        <v>21.85800970066493</v>
+        <v>14.32312301547244</v>
       </c>
       <c r="N9">
-        <v>29.32510196508143</v>
+        <v>20.83347137908939</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.11289173401076</v>
+        <v>20.78151431636956</v>
       </c>
       <c r="C10">
-        <v>11.07318537814879</v>
+        <v>12.17395648008497</v>
       </c>
       <c r="D10">
-        <v>12.42558607573547</v>
+        <v>8.553891461566812</v>
       </c>
       <c r="E10">
-        <v>11.28205842782248</v>
+        <v>6.349158083527009</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.840108913866524</v>
+        <v>2.163458077650091</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>45.60408062248519</v>
+        <v>34.66884929856709</v>
       </c>
       <c r="J10">
-        <v>7.215677033136664</v>
+        <v>4.602573222599275</v>
       </c>
       <c r="K10">
-        <v>21.97834559362354</v>
+        <v>18.29598459341856</v>
       </c>
       <c r="L10">
-        <v>14.13488006663891</v>
+        <v>8.884568801099853</v>
       </c>
       <c r="M10">
-        <v>21.85691549722472</v>
+        <v>14.81772946504514</v>
       </c>
       <c r="N10">
-        <v>29.31117203138906</v>
+        <v>20.81900269142466</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.18969022732574</v>
+        <v>21.36291795302977</v>
       </c>
       <c r="C11">
-        <v>11.16501102038851</v>
+        <v>12.57154448585909</v>
       </c>
       <c r="D11">
-        <v>12.42864329765253</v>
+        <v>8.684823558093969</v>
       </c>
       <c r="E11">
-        <v>11.27068214981141</v>
+        <v>6.340578548177161</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.837761636023826</v>
+        <v>2.155953926313624</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>45.64173228432094</v>
+        <v>35.04284509958565</v>
       </c>
       <c r="J11">
-        <v>7.221823730948143</v>
+        <v>4.630678477313286</v>
       </c>
       <c r="K11">
-        <v>22.03556307875191</v>
+        <v>18.77282285039008</v>
       </c>
       <c r="L11">
-        <v>14.12734650457492</v>
+        <v>8.955445708537962</v>
       </c>
       <c r="M11">
-        <v>21.86016788672198</v>
+        <v>15.04922952003955</v>
       </c>
       <c r="N11">
-        <v>29.30665573110152</v>
+        <v>20.81949907484822</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.21952638020245</v>
+        <v>21.58216673509182</v>
       </c>
       <c r="C12">
-        <v>11.19999839600001</v>
+        <v>12.72106473544483</v>
       </c>
       <c r="D12">
-        <v>12.43009864873355</v>
+        <v>8.73492036883329</v>
       </c>
       <c r="E12">
-        <v>11.26650294558402</v>
+        <v>6.337616096670609</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.836889143885934</v>
+        <v>2.153121749999946</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>45.6568187385974</v>
+        <v>35.18720306395672</v>
       </c>
       <c r="J12">
-        <v>7.224131752768022</v>
+        <v>4.641364548325866</v>
       </c>
       <c r="K12">
-        <v>22.0578954594321</v>
+        <v>18.95307393745169</v>
       </c>
       <c r="L12">
-        <v>14.12476748394234</v>
+        <v>8.983024551943345</v>
       </c>
       <c r="M12">
-        <v>21.86193720474363</v>
+        <v>15.13783156267068</v>
       </c>
       <c r="N12">
-        <v>29.30520713748702</v>
+        <v>20.82077461916779</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.21306736935513</v>
+        <v>21.53498880326974</v>
       </c>
       <c r="C13">
-        <v>11.19245413891056</v>
+        <v>12.68890859590525</v>
       </c>
       <c r="D13">
-        <v>12.42977199202459</v>
+        <v>8.724108136412454</v>
       </c>
       <c r="E13">
-        <v>11.26739729327095</v>
+        <v>6.338241238598469</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.837076324097787</v>
+        <v>2.15373134180281</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>45.65353281572727</v>
+        <v>35.15598929561024</v>
       </c>
       <c r="J13">
-        <v>7.223635549020252</v>
+        <v>4.639060984374023</v>
       </c>
       <c r="K13">
-        <v>22.05305638064418</v>
+        <v>18.91426810925659</v>
       </c>
       <c r="L13">
-        <v>14.12531075236868</v>
+        <v>8.977051609952969</v>
       </c>
       <c r="M13">
-        <v>21.8615322632913</v>
+        <v>15.11870766633704</v>
       </c>
       <c r="N13">
-        <v>29.30550748460489</v>
+        <v>20.82045035251634</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.19212985121966</v>
+        <v>21.38097422289854</v>
       </c>
       <c r="C14">
-        <v>11.16788531025345</v>
+        <v>12.58386625629307</v>
       </c>
       <c r="D14">
-        <v>12.42875707108466</v>
+        <v>8.68893470032466</v>
       </c>
       <c r="E14">
-        <v>11.27033574652855</v>
+        <v>6.34032903634777</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.837689528019111</v>
+        <v>2.155720750632391</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>45.64295687372423</v>
+        <v>35.05466597159584</v>
       </c>
       <c r="J14">
-        <v>7.222014005500974</v>
+        <v>4.631556687261893</v>
       </c>
       <c r="K14">
-        <v>22.03738711082259</v>
+        <v>18.78765871135188</v>
       </c>
       <c r="L14">
-        <v>14.12712884242347</v>
+        <v>8.957699653814281</v>
       </c>
       <c r="M14">
-        <v>21.86030268295021</v>
+        <v>15.056500015662</v>
       </c>
       <c r="N14">
-        <v>29.30653131192295</v>
+        <v>20.8195817937738</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.1794027152653</v>
+        <v>21.28651555329261</v>
       </c>
       <c r="C15">
-        <v>11.15286333082681</v>
+        <v>12.51939037938633</v>
       </c>
       <c r="D15">
-        <v>12.42817413367444</v>
+        <v>8.667457195438331</v>
       </c>
       <c r="E15">
-        <v>11.2721523868966</v>
+        <v>6.341645425485617</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.838067262274917</v>
+        <v>2.156940456849301</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>45.63658658747758</v>
+        <v>34.9929624235682</v>
       </c>
       <c r="J15">
-        <v>7.221018213928778</v>
+        <v>4.626966095029849</v>
       </c>
       <c r="K15">
-        <v>22.02787552655549</v>
+        <v>18.71006473127081</v>
       </c>
       <c r="L15">
-        <v>14.12827811690679</v>
+        <v>8.945943157082381</v>
       </c>
       <c r="M15">
-        <v>21.85961950433702</v>
+        <v>15.01851842824715</v>
       </c>
       <c r="N15">
-        <v>29.30719250284816</v>
+        <v>20.81919359876294</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.10797926816976</v>
+        <v>20.74339213991811</v>
       </c>
       <c r="C16">
-        <v>11.06721602192048</v>
+        <v>12.14782684782048</v>
       </c>
       <c r="D16">
-        <v>12.4254279871028</v>
+        <v>8.545406786572556</v>
       </c>
       <c r="E16">
-        <v>11.28281993527064</v>
+        <v>6.349758405427138</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.840264610106441</v>
+        <v>2.163949997388427</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>45.60173616785477</v>
+        <v>34.64478336893791</v>
       </c>
       <c r="J16">
-        <v>7.215272583735804</v>
+        <v>4.600741846272208</v>
       </c>
       <c r="K16">
-        <v>21.97470004525139</v>
+        <v>18.26477935253879</v>
       </c>
       <c r="L16">
-        <v>14.13541073492728</v>
+        <v>8.880038733834876</v>
       </c>
       <c r="M16">
-        <v>21.85677828125935</v>
+        <v>14.80273129009646</v>
       </c>
       <c r="N16">
-        <v>29.31150380266329</v>
+        <v>20.81911848985071</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.06552523859168</v>
+        <v>20.40861832175191</v>
       </c>
       <c r="C17">
-        <v>11.01508811718444</v>
+        <v>11.91801805866741</v>
       </c>
       <c r="D17">
-        <v>12.42427455442887</v>
+        <v>8.471449638962628</v>
       </c>
       <c r="E17">
-        <v>11.2895939316285</v>
+        <v>6.35523683744015</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.841641873402202</v>
+        <v>2.168270481172619</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>45.581836665053</v>
+        <v>34.43592081285653</v>
       </c>
       <c r="J17">
-        <v>7.21171280650937</v>
+        <v>4.584717939552454</v>
       </c>
       <c r="K17">
-        <v>21.94327617813033</v>
+        <v>17.99108256809228</v>
       </c>
       <c r="L17">
-        <v>14.14027440694358</v>
+        <v>8.84089521136648</v>
       </c>
       <c r="M17">
-        <v>21.85599475995812</v>
+        <v>14.67201763880982</v>
       </c>
       <c r="N17">
-        <v>29.31461481626426</v>
+        <v>20.82093282116582</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.04161271312897</v>
+        <v>20.21550226397688</v>
       </c>
       <c r="C18">
-        <v>10.98526693176301</v>
+        <v>11.78515058389907</v>
       </c>
       <c r="D18">
-        <v>12.42380666460985</v>
+        <v>8.42924854033399</v>
       </c>
       <c r="E18">
-        <v>11.29357475362035</v>
+        <v>6.35856961981542</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.842444823274141</v>
+        <v>2.170763982777896</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>45.57093614247677</v>
+        <v>34.31748978061022</v>
       </c>
       <c r="J18">
-        <v>7.209652413951277</v>
+        <v>4.57552112733479</v>
       </c>
       <c r="K18">
-        <v>21.92564571361892</v>
+        <v>17.83348050616775</v>
       </c>
       <c r="L18">
-        <v>14.14325133251209</v>
+        <v>8.81884508814392</v>
       </c>
       <c r="M18">
-        <v>21.85589719072392</v>
+        <v>14.59744588674335</v>
       </c>
       <c r="N18">
-        <v>29.31657555351393</v>
+        <v>20.82263805675971</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.03360373167596</v>
+        <v>20.15002205937649</v>
       </c>
       <c r="C19">
-        <v>10.97519858969158</v>
+        <v>11.74004600554053</v>
       </c>
       <c r="D19">
-        <v>12.42368185557513</v>
+        <v>8.415017930929466</v>
       </c>
       <c r="E19">
-        <v>11.29493713541149</v>
+        <v>6.359729024583717</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.84271854348046</v>
+        <v>2.171609785530294</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>45.56733915132424</v>
+        <v>34.27767973474081</v>
       </c>
       <c r="J19">
-        <v>7.2089525811749</v>
+        <v>4.572410291435513</v>
       </c>
       <c r="K19">
-        <v>21.91975288100593</v>
+        <v>17.78009021490416</v>
       </c>
       <c r="L19">
-        <v>14.14429010293868</v>
+        <v>8.811458224141901</v>
       </c>
       <c r="M19">
-        <v>21.85592484242521</v>
+        <v>14.57230219892973</v>
       </c>
       <c r="N19">
-        <v>29.31726886173337</v>
+        <v>20.8233270498137</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.06999230229608</v>
+        <v>20.44431434968038</v>
       </c>
       <c r="C20">
-        <v>11.02062072545446</v>
+        <v>11.9425527710303</v>
       </c>
       <c r="D20">
-        <v>12.42437710886542</v>
+        <v>8.479287627176454</v>
       </c>
       <c r="E20">
-        <v>11.28886407586704</v>
+        <v>6.354634784906287</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.841494145924489</v>
+        <v>2.167809703063854</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>45.58389860725234</v>
+        <v>34.45797767859391</v>
       </c>
       <c r="J20">
-        <v>7.212093085502827</v>
+        <v>4.586421589735669</v>
       </c>
       <c r="K20">
-        <v>21.94657545949121</v>
+        <v>18.02023697883845</v>
       </c>
       <c r="L20">
-        <v>14.13973808883708</v>
+        <v>8.84501387273481</v>
       </c>
       <c r="M20">
-        <v>21.85604163405036</v>
+        <v>14.68586906854267</v>
       </c>
       <c r="N20">
-        <v>29.31426590914647</v>
+        <v>20.82067071772345</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.19825937951995</v>
+        <v>21.42623715201766</v>
       </c>
       <c r="C21">
-        <v>11.17509616718308</v>
+        <v>12.61474769498656</v>
       </c>
       <c r="D21">
-        <v>12.42904710842066</v>
+        <v>8.699251971246383</v>
       </c>
       <c r="E21">
-        <v>11.26946916110206</v>
+        <v>6.339707958179237</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.837508971620969</v>
+        <v>2.15513618241762</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>45.6460408298126</v>
+        <v>35.08435184260659</v>
       </c>
       <c r="J21">
-        <v>7.222490823238094</v>
+        <v>4.633759606178165</v>
       </c>
       <c r="K21">
-        <v>22.04197159280145</v>
+        <v>18.82485576147555</v>
       </c>
       <c r="L21">
-        <v>14.12658739831139</v>
+        <v>8.963363496916346</v>
       </c>
       <c r="M21">
-        <v>21.86064926095123</v>
+        <v>15.07474638551035</v>
       </c>
       <c r="N21">
-        <v>29.30622348976478</v>
+        <v>20.81980680369601</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.28647686306668</v>
+        <v>22.06264180694074</v>
       </c>
       <c r="C22">
-        <v>11.27729446424002</v>
+        <v>13.04804058858383</v>
       </c>
       <c r="D22">
-        <v>12.43383358152142</v>
+        <v>8.846020688464028</v>
       </c>
       <c r="E22">
-        <v>11.25754367908475</v>
+        <v>6.331626266204244</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.83499980854147</v>
+        <v>2.146906866868854</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>45.69148186731567</v>
+        <v>35.50972670335666</v>
       </c>
       <c r="J22">
-        <v>7.22917215364776</v>
+        <v>4.664956275514012</v>
       </c>
       <c r="K22">
-        <v>22.10819079055446</v>
+        <v>19.34887348005966</v>
       </c>
       <c r="L22">
-        <v>14.11958822860165</v>
+        <v>9.045035706736392</v>
       </c>
       <c r="M22">
-        <v>21.86679388210693</v>
+        <v>15.33437563642731</v>
       </c>
       <c r="N22">
-        <v>29.30249220281398</v>
+        <v>20.82561894875695</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.23899798736771</v>
+        <v>21.72347743974527</v>
       </c>
       <c r="C23">
-        <v>11.22264547259915</v>
+        <v>12.81732538123636</v>
       </c>
       <c r="D23">
-        <v>12.4311206180088</v>
+        <v>8.767410783777843</v>
       </c>
       <c r="E23">
-        <v>11.26384003905115</v>
+        <v>6.335783604913199</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.836330300569245</v>
+        <v>2.151295236099091</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>45.6667888148929</v>
+        <v>35.28118738856919</v>
       </c>
       <c r="J23">
-        <v>7.225616616580331</v>
+        <v>4.648278047801452</v>
       </c>
       <c r="K23">
-        <v>22.07249803922535</v>
+        <v>19.0693706474205</v>
       </c>
       <c r="L23">
-        <v>14.12317795834505</v>
+        <v>9.001040314974299</v>
       </c>
       <c r="M23">
-        <v>21.86322826983319</v>
+        <v>15.1953022208159</v>
       </c>
       <c r="N23">
-        <v>29.30434418951004</v>
+        <v>20.82190852077944</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.06797120007772</v>
+        <v>20.42817819585684</v>
       </c>
       <c r="C24">
-        <v>11.01811897056142</v>
+        <v>11.93146295574103</v>
       </c>
       <c r="D24">
-        <v>12.42433013581715</v>
+        <v>8.475743082624563</v>
       </c>
       <c r="E24">
-        <v>11.2891937746241</v>
+        <v>6.354906402951578</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.841560898800407</v>
+        <v>2.168017990717553</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>45.58296472089826</v>
+        <v>34.44800064915145</v>
       </c>
       <c r="J24">
-        <v>7.211921204457431</v>
+        <v>4.585651321947455</v>
       </c>
       <c r="K24">
-        <v>21.94508249688965</v>
+        <v>18.00705704522757</v>
       </c>
       <c r="L24">
-        <v>14.13997999525838</v>
+        <v>8.843150413831943</v>
       </c>
       <c r="M24">
-        <v>21.85601934295179</v>
+        <v>14.67960503921322</v>
       </c>
       <c r="N24">
-        <v>29.31442311369303</v>
+        <v>20.82078715742415</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.90288983805125</v>
+        <v>19.01000970929145</v>
       </c>
       <c r="C25">
-        <v>10.80378818713066</v>
+        <v>10.94982807768785</v>
       </c>
       <c r="D25">
-        <v>12.42448359142259</v>
+        <v>8.174051411110424</v>
       </c>
       <c r="E25">
-        <v>11.31977817390588</v>
+        <v>6.382455470718209</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.847615664554892</v>
+        <v>2.186390267934126</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>45.51339927424979</v>
+        <v>33.61391963769538</v>
       </c>
       <c r="J25">
-        <v>7.196654703526925</v>
+        <v>4.518815242317898</v>
       </c>
       <c r="K25">
-        <v>21.82464497929818</v>
+        <v>16.85476752262843</v>
       </c>
       <c r="L25">
-        <v>14.16496619053165</v>
+        <v>8.69049406079526</v>
       </c>
       <c r="M25">
-        <v>21.86174642690338</v>
+        <v>14.14676252551423</v>
       </c>
       <c r="N25">
-        <v>29.33184679790965</v>
+        <v>20.84464836642036</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.95148828508765</v>
+        <v>17.87557372861393</v>
       </c>
       <c r="C2">
-        <v>10.20553779824226</v>
+        <v>14.2270008343385</v>
       </c>
       <c r="D2">
-        <v>7.963130327084208</v>
+        <v>7.190958865658273</v>
       </c>
       <c r="E2">
-        <v>6.408434683867649</v>
+        <v>15.00226173209798</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.200309179825018</v>
+        <v>23.46664408220645</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.321110055144542</v>
       </c>
       <c r="I2">
-        <v>33.05123603756111</v>
+        <v>3.378972814870719</v>
       </c>
       <c r="J2">
-        <v>4.46983440336654</v>
+        <v>8.493700403421672</v>
       </c>
       <c r="K2">
-        <v>16.00369510642259</v>
+        <v>12.29534925088037</v>
       </c>
       <c r="L2">
-        <v>8.592321482541362</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.77468664438016</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>20.8815112105204</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16.80912009153246</v>
+      </c>
+      <c r="P2">
+        <v>11.86421466052822</v>
+      </c>
+      <c r="Q2">
+        <v>14.26606941107327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.22817495426546</v>
+        <v>16.7342122454924</v>
       </c>
       <c r="C3">
-        <v>9.689034598355171</v>
+        <v>13.44635622575487</v>
       </c>
       <c r="D3">
-        <v>7.82729825679207</v>
+        <v>6.69837723157901</v>
       </c>
       <c r="E3">
-        <v>6.429479794479853</v>
+        <v>14.31884423315398</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.210032016232124</v>
+        <v>22.46505446279463</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.119877559065801</v>
       </c>
       <c r="I3">
-        <v>32.70010472373709</v>
+        <v>3.233924237863075</v>
       </c>
       <c r="J3">
-        <v>4.436618044611926</v>
+        <v>8.418156812501316</v>
       </c>
       <c r="K3">
-        <v>15.4275308417201</v>
+        <v>12.32153184450295</v>
       </c>
       <c r="L3">
-        <v>8.534215415475591</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>13.53534385107432</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>20.91753053809789</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15.83837329254766</v>
+      </c>
+      <c r="P3">
+        <v>11.94983508764314</v>
+      </c>
+      <c r="Q3">
+        <v>13.95173208965522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.78245190917508</v>
+        <v>15.9893067275059</v>
       </c>
       <c r="C4">
-        <v>9.366656261022722</v>
+        <v>12.94591085997561</v>
       </c>
       <c r="D4">
-        <v>7.747451160503134</v>
+        <v>6.378469555352864</v>
       </c>
       <c r="E4">
-        <v>6.444063812787388</v>
+        <v>13.88116697066735</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.216158411484201</v>
+        <v>21.83860853304218</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.991838874788474</v>
       </c>
       <c r="I4">
-        <v>32.49881105405781</v>
+        <v>3.142186206998701</v>
       </c>
       <c r="J4">
-        <v>4.41616441092967</v>
+        <v>8.374672069527968</v>
       </c>
       <c r="K4">
-        <v>15.07504504649018</v>
+        <v>12.34231538132715</v>
       </c>
       <c r="L4">
-        <v>8.502549653893174</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>13.39478517938918</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>20.94479278229521</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>15.21156647055134</v>
+      </c>
+      <c r="P4">
+        <v>12.00470518693479</v>
+      </c>
+      <c r="Q4">
+        <v>13.76156859807145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.60064642653195</v>
+        <v>15.6696324295986</v>
       </c>
       <c r="C5">
-        <v>9.23410664147211</v>
+        <v>12.7452756426771</v>
       </c>
       <c r="D5">
-        <v>7.715814044759823</v>
+        <v>6.243668771803562</v>
       </c>
       <c r="E5">
-        <v>6.450420209619463</v>
+        <v>13.69800065419085</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.21869618250976</v>
+        <v>21.56796493933602</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.938373322790538</v>
       </c>
       <c r="I5">
-        <v>32.42029285826649</v>
+        <v>3.104434222255416</v>
       </c>
       <c r="J5">
-        <v>4.407808202296764</v>
+        <v>8.355548065966069</v>
       </c>
       <c r="K5">
-        <v>14.93189564848893</v>
+        <v>12.34693341812162</v>
       </c>
       <c r="L5">
-        <v>8.490633253560407</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>13.33912786744495</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>20.95715527050094</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.948510786414</v>
+      </c>
+      <c r="P5">
+        <v>12.02825392895464</v>
+      </c>
+      <c r="Q5">
+        <v>13.67945632119539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.57045489947845</v>
+        <v>15.60974136687724</v>
       </c>
       <c r="C6">
-        <v>9.212030419808483</v>
+        <v>12.7220825918272</v>
       </c>
       <c r="D6">
-        <v>7.710615354786309</v>
+        <v>6.22099571900474</v>
       </c>
       <c r="E6">
-        <v>6.451500514672237</v>
+        <v>13.66686338975416</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.21912011870416</v>
+        <v>21.50716565121232</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.92924719632337</v>
       </c>
       <c r="I6">
-        <v>32.40746448010973</v>
+        <v>3.098688983487619</v>
       </c>
       <c r="J6">
-        <v>4.406419201587601</v>
+        <v>8.349814149772881</v>
       </c>
       <c r="K6">
-        <v>14.90816074038173</v>
+        <v>12.34167023161989</v>
       </c>
       <c r="L6">
-        <v>8.488713574887935</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>13.32998427611276</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>20.9592825716428</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.90436154555289</v>
+      </c>
+      <c r="P6">
+        <v>12.03296178320511</v>
+      </c>
+      <c r="Q6">
+        <v>13.6592585888657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.78000037405738</v>
+        <v>15.96866029631778</v>
       </c>
       <c r="C7">
-        <v>9.36487321222687</v>
+        <v>12.97119038795262</v>
       </c>
       <c r="D7">
-        <v>7.747020833145331</v>
+        <v>6.376609011301722</v>
       </c>
       <c r="E7">
-        <v>6.444147869950847</v>
+        <v>13.87749740161944</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.216192467507284</v>
+        <v>21.79266350910057</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.990642394956901</v>
       </c>
       <c r="I7">
-        <v>32.49773802971719</v>
+        <v>3.142933706249934</v>
       </c>
       <c r="J7">
-        <v>4.416051810120304</v>
+        <v>8.367329002056019</v>
       </c>
       <c r="K7">
-        <v>15.0731122582527</v>
+        <v>12.32571744744392</v>
       </c>
       <c r="L7">
-        <v>8.502384974193363</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>13.39402798483096</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>20.9449544866057</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>15.20801215938891</v>
+      </c>
+      <c r="P7">
+        <v>12.00717225463499</v>
+      </c>
+      <c r="Q7">
+        <v>13.74252763852819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.70255443794984</v>
+        <v>17.47112270476935</v>
       </c>
       <c r="C8">
-        <v>10.02861101488505</v>
+        <v>13.99697125882778</v>
       </c>
       <c r="D8">
-        <v>7.91556239991046</v>
+        <v>7.024640578498893</v>
       </c>
       <c r="E8">
-        <v>6.415343122239571</v>
+        <v>14.76896104424588</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.203630279988387</v>
+        <v>23.07078170364368</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.252045930680043</v>
       </c>
       <c r="I8">
-        <v>32.92714580174404</v>
+        <v>3.330808588574417</v>
       </c>
       <c r="J8">
-        <v>4.458389537347919</v>
+        <v>8.457798864717942</v>
       </c>
       <c r="K8">
-        <v>15.80486377203307</v>
+        <v>12.28135813278745</v>
       </c>
       <c r="L8">
-        <v>8.571441237123372</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>13.69084098996868</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>20.89283694796021</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>16.48079911441118</v>
+      </c>
+      <c r="P8">
+        <v>11.89639744606897</v>
+      </c>
+      <c r="Q8">
+        <v>14.13405427450603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.49026645505037</v>
+        <v>20.09447633538182</v>
       </c>
       <c r="C9">
-        <v>11.28394912549873</v>
+        <v>15.79251109588041</v>
       </c>
       <c r="D9">
-        <v>8.273947130878007</v>
+        <v>8.158249497807093</v>
       </c>
       <c r="E9">
-        <v>6.37227467757395</v>
+        <v>16.37201897263852</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.180147232107684</v>
+        <v>25.54252141504704</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.73061651285887</v>
       </c>
       <c r="I9">
-        <v>33.88662781858231</v>
+        <v>3.677193333633672</v>
       </c>
       <c r="J9">
-        <v>4.541269463665517</v>
+        <v>8.670892440436697</v>
       </c>
       <c r="K9">
-        <v>17.24357392876291</v>
+        <v>12.26366288323076</v>
       </c>
       <c r="L9">
-        <v>8.739645232727566</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>14.32312301547244</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>20.83347137908939</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>18.72886230650694</v>
+      </c>
+      <c r="P9">
+        <v>11.69345813783104</v>
+      </c>
+      <c r="Q9">
+        <v>14.95219422419023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.78151431636956</v>
+        <v>21.80989619744242</v>
       </c>
       <c r="C10">
-        <v>12.17395648008497</v>
+        <v>17.00225399790701</v>
       </c>
       <c r="D10">
-        <v>8.553891461566812</v>
+        <v>8.908610102552892</v>
       </c>
       <c r="E10">
-        <v>6.349158083527009</v>
+        <v>16.96003598854818</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.163458077650091</v>
+        <v>27.08555218014899</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.038700867810833</v>
       </c>
       <c r="I10">
-        <v>34.66884929856709</v>
+        <v>3.916524218690492</v>
       </c>
       <c r="J10">
-        <v>4.602573222599275</v>
+        <v>8.805405908681079</v>
       </c>
       <c r="K10">
-        <v>18.29598459341856</v>
+        <v>12.21626878186901</v>
       </c>
       <c r="L10">
-        <v>8.884568801099853</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>14.81772946504514</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>20.81900269142466</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>19.94232272293857</v>
+      </c>
+      <c r="P10">
+        <v>11.57486908719476</v>
+      </c>
+      <c r="Q10">
+        <v>15.47277481056317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.36291795302977</v>
+        <v>22.57589694432743</v>
       </c>
       <c r="C11">
-        <v>12.57154448585909</v>
+        <v>17.44196681922068</v>
       </c>
       <c r="D11">
-        <v>8.684823558093969</v>
+        <v>9.228102512523122</v>
       </c>
       <c r="E11">
-        <v>6.340578548177161</v>
+        <v>13.22403749762875</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.155953926313624</v>
+        <v>26.20570746500854</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.608910224368198</v>
       </c>
       <c r="I11">
-        <v>35.04284509958565</v>
+        <v>3.992619506554413</v>
       </c>
       <c r="J11">
-        <v>4.630678477313286</v>
+        <v>8.570499861663926</v>
       </c>
       <c r="K11">
-        <v>18.77282285039008</v>
+        <v>11.71303861164607</v>
       </c>
       <c r="L11">
-        <v>8.955445708537962</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>15.04922952003955</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>20.81949907484822</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>18.03838101445126</v>
+      </c>
+      <c r="P11">
+        <v>11.69565653891597</v>
+      </c>
+      <c r="Q11">
+        <v>14.99011798299994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.58216673509182</v>
+        <v>22.89604965460942</v>
       </c>
       <c r="C12">
-        <v>12.72106473544483</v>
+        <v>17.53332109304528</v>
       </c>
       <c r="D12">
-        <v>8.73492036883329</v>
+        <v>9.34509932152306</v>
       </c>
       <c r="E12">
-        <v>6.337616096670609</v>
+        <v>10.54648695351243</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.153121749999946</v>
+        <v>25.17597273339401</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.640490341488562</v>
       </c>
       <c r="I12">
-        <v>35.18720306395672</v>
+        <v>4.008461714593453</v>
       </c>
       <c r="J12">
-        <v>4.641364548325866</v>
+        <v>8.347623273971179</v>
       </c>
       <c r="K12">
-        <v>18.95307393745169</v>
+        <v>11.31981084461724</v>
       </c>
       <c r="L12">
-        <v>8.983024551943345</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>15.13783156267068</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>20.82077461916779</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>16.16393211776173</v>
+      </c>
+      <c r="P12">
+        <v>11.8372045431799</v>
+      </c>
+      <c r="Q12">
+        <v>14.48501887512175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.53498880326974</v>
+        <v>22.88453962776705</v>
       </c>
       <c r="C13">
-        <v>12.68890859590525</v>
+        <v>17.3991923938197</v>
       </c>
       <c r="D13">
-        <v>8.724108136412454</v>
+        <v>9.316944192510569</v>
       </c>
       <c r="E13">
-        <v>6.338241238598469</v>
+        <v>9.001222694174855</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.15373134180281</v>
+        <v>23.8808046594393</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.829709466700065</v>
       </c>
       <c r="I13">
-        <v>35.15598929561024</v>
+        <v>3.981229507303882</v>
       </c>
       <c r="J13">
-        <v>4.639060984374023</v>
+        <v>8.107703122753943</v>
       </c>
       <c r="K13">
-        <v>18.91426810925659</v>
+        <v>10.96194909609323</v>
       </c>
       <c r="L13">
-        <v>8.977051609952969</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>15.11870766633704</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>20.82045035251634</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>14.1438939565778</v>
+      </c>
+      <c r="P13">
+        <v>12.0006431564609</v>
+      </c>
+      <c r="Q13">
+        <v>13.89675495680049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.38097422289854</v>
+        <v>22.72291219748474</v>
       </c>
       <c r="C14">
-        <v>12.58386625629307</v>
+        <v>17.20875754847815</v>
       </c>
       <c r="D14">
-        <v>8.68893470032466</v>
+        <v>9.231262122321448</v>
       </c>
       <c r="E14">
-        <v>6.34032903634777</v>
+        <v>8.915814955038607</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.155720750632391</v>
+        <v>22.82711847381443</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.716684776437343</v>
       </c>
       <c r="I14">
-        <v>35.05466597159584</v>
+        <v>3.943638364037032</v>
       </c>
       <c r="J14">
-        <v>4.631556687261893</v>
+        <v>7.929812708508774</v>
       </c>
       <c r="K14">
-        <v>18.78765871135188</v>
+        <v>10.72583866455372</v>
       </c>
       <c r="L14">
-        <v>8.957699653814281</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>15.056500015662</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>20.8195817937738</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>12.63973703609632</v>
+      </c>
+      <c r="P14">
+        <v>12.12572201707741</v>
+      </c>
+      <c r="Q14">
+        <v>13.43891559892877</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.28651555329261</v>
+        <v>22.60668577914283</v>
       </c>
       <c r="C15">
-        <v>12.51939037938633</v>
+        <v>17.12205193843334</v>
       </c>
       <c r="D15">
-        <v>8.667457195438331</v>
+        <v>9.17899907672208</v>
       </c>
       <c r="E15">
-        <v>6.341645425485617</v>
+        <v>9.031588357501702</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.156940456849301</v>
+        <v>22.49849069564463</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.920017081468146</v>
       </c>
       <c r="I15">
-        <v>34.9929624235682</v>
+        <v>3.925606371053035</v>
       </c>
       <c r="J15">
-        <v>4.626966095029849</v>
+        <v>7.881333586792283</v>
       </c>
       <c r="K15">
-        <v>18.71006473127081</v>
+        <v>10.67160259710947</v>
       </c>
       <c r="L15">
-        <v>8.945943157082381</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>15.01851842824715</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>20.81919359876294</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>12.23848873958112</v>
+      </c>
+      <c r="P15">
+        <v>12.15949226575696</v>
+      </c>
+      <c r="Q15">
+        <v>13.30466629200294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.74339213991811</v>
+        <v>21.90381261278832</v>
       </c>
       <c r="C16">
-        <v>12.14782684782048</v>
+        <v>16.65887142463224</v>
       </c>
       <c r="D16">
-        <v>8.545406786572556</v>
+        <v>8.876458027146624</v>
       </c>
       <c r="E16">
-        <v>6.349758405427138</v>
+        <v>8.94041493133011</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.163949997388427</v>
+        <v>21.99388168465482</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.652269566985634</v>
       </c>
       <c r="I16">
-        <v>34.64478336893791</v>
+        <v>3.83074909635877</v>
       </c>
       <c r="J16">
-        <v>4.600741846272208</v>
+        <v>7.863127853222259</v>
       </c>
       <c r="K16">
-        <v>18.26477935253879</v>
+        <v>10.75565140527513</v>
       </c>
       <c r="L16">
-        <v>8.880038733834876</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>14.80273129009646</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>20.81911848985071</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>11.99254277356885</v>
+      </c>
+      <c r="P16">
+        <v>12.16236649806328</v>
+      </c>
+      <c r="Q16">
+        <v>13.16717083492903</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.40861832175191</v>
+        <v>21.44127777439832</v>
       </c>
       <c r="C17">
-        <v>11.91801805866741</v>
+        <v>16.40324691228153</v>
       </c>
       <c r="D17">
-        <v>8.471449638962628</v>
+        <v>8.687085597121188</v>
       </c>
       <c r="E17">
-        <v>6.35523683744015</v>
+        <v>8.736248162144614</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.168270481172619</v>
+        <v>22.1912717572288</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.92665470662462</v>
       </c>
       <c r="I17">
-        <v>34.43592081285653</v>
+        <v>3.777688723199823</v>
       </c>
       <c r="J17">
-        <v>4.584717939552454</v>
+        <v>7.945289297766063</v>
       </c>
       <c r="K17">
-        <v>17.99108256809228</v>
+        <v>10.94419553764694</v>
       </c>
       <c r="L17">
-        <v>8.84089521136648</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>14.67201763880982</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>20.82093282116582</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.63920412992257</v>
+      </c>
+      <c r="P17">
+        <v>12.10018085253621</v>
+      </c>
+      <c r="Q17">
+        <v>13.31205084540631</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.21550226397688</v>
+        <v>21.1556124494486</v>
       </c>
       <c r="C18">
-        <v>11.78515058389907</v>
+        <v>16.28460642257394</v>
       </c>
       <c r="D18">
-        <v>8.42924854033399</v>
+        <v>8.577742832457416</v>
       </c>
       <c r="E18">
-        <v>6.35856961981542</v>
+        <v>9.364303088141366</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.170763982777896</v>
+        <v>23.041910581095</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.782994328990916</v>
       </c>
       <c r="I18">
-        <v>34.31748978061022</v>
+        <v>3.754473448928244</v>
       </c>
       <c r="J18">
-        <v>4.57552112733479</v>
+        <v>8.125811776879347</v>
       </c>
       <c r="K18">
-        <v>17.83348050616775</v>
+        <v>11.25635577639037</v>
       </c>
       <c r="L18">
-        <v>8.81884508814392</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>14.59744588674335</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>20.82263805675971</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.13808207689089</v>
+      </c>
+      <c r="P18">
+        <v>11.97861505007743</v>
+      </c>
+      <c r="Q18">
+        <v>13.72459612121933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.15002205937649</v>
+        <v>21.0146595831457</v>
       </c>
       <c r="C19">
-        <v>11.74004600554053</v>
+        <v>16.3322404856528</v>
       </c>
       <c r="D19">
-        <v>8.415017930929466</v>
+        <v>8.542376853078332</v>
       </c>
       <c r="E19">
-        <v>6.359729024583717</v>
+        <v>11.65613513132859</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.171609785530294</v>
+        <v>24.26894180423893</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.590085025193699</v>
       </c>
       <c r="I19">
-        <v>34.27767973474081</v>
+        <v>3.765003945810829</v>
       </c>
       <c r="J19">
-        <v>4.572410291435513</v>
+        <v>8.357935169534885</v>
       </c>
       <c r="K19">
-        <v>17.78009021490416</v>
+        <v>11.62169131831311</v>
       </c>
       <c r="L19">
-        <v>8.811458224141901</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>14.57230219892973</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>20.8233270498137</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>16.19459919381071</v>
+      </c>
+      <c r="P19">
+        <v>11.83615247692187</v>
+      </c>
+      <c r="Q19">
+        <v>14.28522819720001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.44431434968038</v>
+        <v>21.33426431949761</v>
       </c>
       <c r="C20">
-        <v>11.9425527710303</v>
+        <v>16.761441860133</v>
       </c>
       <c r="D20">
-        <v>8.479287627176454</v>
+        <v>8.716790678584749</v>
       </c>
       <c r="E20">
-        <v>6.354634784906287</v>
+        <v>16.78294201496578</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.167809703063854</v>
+        <v>26.56817514456766</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.955639299309866</v>
       </c>
       <c r="I20">
-        <v>34.45797767859391</v>
+        <v>3.859792476177136</v>
       </c>
       <c r="J20">
-        <v>4.586421589735669</v>
+        <v>8.746744717171694</v>
       </c>
       <c r="K20">
-        <v>18.02023697883845</v>
+        <v>12.17320360720712</v>
       </c>
       <c r="L20">
-        <v>8.84501387273481</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14.68586906854267</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>20.82067071772345</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>19.61862849569977</v>
+      </c>
+      <c r="P20">
+        <v>11.6147705317778</v>
+      </c>
+      <c r="Q20">
+        <v>15.28175157402557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.42623715201766</v>
+        <v>22.58606122591364</v>
       </c>
       <c r="C21">
-        <v>12.61474769498656</v>
+        <v>17.65965089123517</v>
       </c>
       <c r="D21">
-        <v>8.699251971246383</v>
+        <v>9.267996621677742</v>
       </c>
       <c r="E21">
-        <v>6.339707958179237</v>
+        <v>17.97715279284861</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.15513618241762</v>
+        <v>28.02564733036555</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.223320780793538</v>
       </c>
       <c r="I21">
-        <v>35.08435184260659</v>
+        <v>4.045355170720135</v>
       </c>
       <c r="J21">
-        <v>4.633759606178165</v>
+        <v>8.910659355293047</v>
       </c>
       <c r="K21">
-        <v>18.82485576147555</v>
+        <v>12.24009467371051</v>
       </c>
       <c r="L21">
-        <v>8.963363496916346</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>15.07474638551035</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>20.81980680369601</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>20.94226660307578</v>
+      </c>
+      <c r="P21">
+        <v>11.50006922517992</v>
+      </c>
+      <c r="Q21">
+        <v>15.81942039171705</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.06264180694074</v>
+        <v>23.38430632167033</v>
       </c>
       <c r="C22">
-        <v>13.04804058858383</v>
+        <v>18.19291873336321</v>
       </c>
       <c r="D22">
-        <v>8.846020688464028</v>
+        <v>9.613690760848749</v>
       </c>
       <c r="E22">
-        <v>6.331626266204244</v>
+        <v>18.48485758772728</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.146906866868854</v>
+        <v>28.91145729080792</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.382798823301228</v>
       </c>
       <c r="I22">
-        <v>35.50972670335666</v>
+        <v>4.160399544856844</v>
       </c>
       <c r="J22">
-        <v>4.664956275514012</v>
+        <v>9.011934793193674</v>
       </c>
       <c r="K22">
-        <v>19.34887348005966</v>
+        <v>12.28370540742914</v>
       </c>
       <c r="L22">
-        <v>9.045035706736392</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>15.33437563642731</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>20.82561894875695</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>21.63216045181528</v>
+      </c>
+      <c r="P22">
+        <v>11.43213827132316</v>
+      </c>
+      <c r="Q22">
+        <v>16.1496795553387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.72347743974527</v>
+        <v>22.97582098702726</v>
       </c>
       <c r="C23">
-        <v>12.81732538123636</v>
+        <v>17.88496270910681</v>
       </c>
       <c r="D23">
-        <v>8.767410783777843</v>
+        <v>9.43057825717697</v>
       </c>
       <c r="E23">
-        <v>6.335783604913199</v>
+        <v>18.21647811312814</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.151295236099091</v>
+        <v>28.4793211570752</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.298433194964723</v>
       </c>
       <c r="I23">
-        <v>35.28118738856919</v>
+        <v>4.096979974232318</v>
       </c>
       <c r="J23">
-        <v>4.648278047801452</v>
+        <v>8.965386125188125</v>
       </c>
       <c r="K23">
-        <v>19.0693706474205</v>
+        <v>12.27919880062571</v>
       </c>
       <c r="L23">
-        <v>9.001040314974299</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>15.1953022208159</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>20.82190852077944</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>21.26663688089314</v>
+      </c>
+      <c r="P23">
+        <v>11.46458312483234</v>
+      </c>
+      <c r="Q23">
+        <v>15.99169502502946</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.42817819585684</v>
+        <v>21.33154670977605</v>
       </c>
       <c r="C24">
-        <v>11.93146295574103</v>
+        <v>16.71724212919322</v>
       </c>
       <c r="D24">
-        <v>8.475743082624563</v>
+        <v>8.708070178784979</v>
       </c>
       <c r="E24">
-        <v>6.354906402951578</v>
+        <v>17.16318904260257</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.168017990717553</v>
+        <v>26.74840305788072</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.971535586505669</v>
       </c>
       <c r="I24">
-        <v>34.44800064915145</v>
+        <v>3.856188893027329</v>
       </c>
       <c r="J24">
-        <v>4.585651321947455</v>
+        <v>8.78255768165052</v>
       </c>
       <c r="K24">
-        <v>18.00705704522757</v>
+        <v>12.24422472519735</v>
       </c>
       <c r="L24">
-        <v>8.843150413831943</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14.67960503921322</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>20.82078715742415</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>19.82477556680405</v>
+      </c>
+      <c r="P24">
+        <v>11.59802073306636</v>
+      </c>
+      <c r="Q24">
+        <v>15.36617298101775</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.01000970929145</v>
+        <v>19.3972270834268</v>
       </c>
       <c r="C25">
-        <v>10.94982807768785</v>
+        <v>15.36887473931934</v>
       </c>
       <c r="D25">
-        <v>8.174051411110424</v>
+        <v>7.865976546567268</v>
       </c>
       <c r="E25">
-        <v>6.382455470718209</v>
+        <v>15.95276943043411</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.186390267934126</v>
+        <v>24.81959264619809</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.604012607628197</v>
       </c>
       <c r="I25">
-        <v>33.61391963769538</v>
+        <v>3.588197545397253</v>
       </c>
       <c r="J25">
-        <v>4.518815242317898</v>
+        <v>8.598360316157997</v>
       </c>
       <c r="K25">
-        <v>16.85476752262843</v>
+        <v>12.23396155410721</v>
       </c>
       <c r="L25">
-        <v>8.69049406079526</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>14.14676252551423</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>20.84464836642036</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>18.14759673095707</v>
+      </c>
+      <c r="P25">
+        <v>11.7511063864505</v>
+      </c>
+      <c r="Q25">
+        <v>14.69898724814913</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.87557372861393</v>
+        <v>17.61139564555469</v>
       </c>
       <c r="C2">
-        <v>14.2270008343385</v>
+        <v>14.56587978006843</v>
       </c>
       <c r="D2">
-        <v>7.190958865658273</v>
+        <v>7.187087949600193</v>
       </c>
       <c r="E2">
-        <v>15.00226173209798</v>
+        <v>14.93534847211233</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>23.46664408220645</v>
+        <v>22.25762539365757</v>
       </c>
       <c r="H2">
-        <v>2.321110055144542</v>
+        <v>2.297929078015271</v>
       </c>
       <c r="I2">
-        <v>3.378972814870719</v>
+        <v>3.353235027194326</v>
       </c>
       <c r="J2">
-        <v>8.493700403421672</v>
+        <v>9.035962486077016</v>
       </c>
       <c r="K2">
-        <v>12.29534925088037</v>
+        <v>12.02497465422701</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.17631646069023</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.698303642607607</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.80912009153246</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>11.86421466052822</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.26606941107327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.81084313867442</v>
+      </c>
+      <c r="R2">
+        <v>11.91544873860765</v>
+      </c>
+      <c r="S2">
+        <v>14.02339809370817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.7342122454924</v>
+        <v>16.52177037403093</v>
       </c>
       <c r="C3">
-        <v>13.44635622575487</v>
+        <v>13.69439097714066</v>
       </c>
       <c r="D3">
-        <v>6.69837723157901</v>
+        <v>6.695709834596868</v>
       </c>
       <c r="E3">
-        <v>14.31884423315398</v>
+        <v>14.26589026395831</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>22.46505446279463</v>
+        <v>21.33127006388849</v>
       </c>
       <c r="H3">
-        <v>2.119877559065801</v>
+        <v>2.103452113823882</v>
       </c>
       <c r="I3">
-        <v>3.233924237863075</v>
+        <v>3.224376966100355</v>
       </c>
       <c r="J3">
-        <v>8.418156812501316</v>
+        <v>8.955621683752383</v>
       </c>
       <c r="K3">
-        <v>12.32153184450295</v>
+        <v>12.0836790748475</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.32619552244818</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.617410761924806</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.83837329254766</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>11.94983508764314</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>13.95173208965522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.8425904334703</v>
+      </c>
+      <c r="R3">
+        <v>11.97952640147808</v>
+      </c>
+      <c r="S3">
+        <v>13.75332233983329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.9893067275059</v>
+        <v>15.81052963134102</v>
       </c>
       <c r="C4">
-        <v>12.94591085997561</v>
+        <v>13.13482332061113</v>
       </c>
       <c r="D4">
-        <v>6.378469555352864</v>
+        <v>6.376489238652495</v>
       </c>
       <c r="E4">
-        <v>13.88116697066735</v>
+        <v>13.83745492225809</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>21.83860853304218</v>
+        <v>20.75289126830809</v>
       </c>
       <c r="H4">
-        <v>1.991838874788474</v>
+        <v>1.979665490612336</v>
       </c>
       <c r="I4">
-        <v>3.142186206998701</v>
+        <v>3.142981110599409</v>
       </c>
       <c r="J4">
-        <v>8.374672069527968</v>
+        <v>8.90691343993976</v>
       </c>
       <c r="K4">
-        <v>12.34231538132715</v>
+        <v>12.12291319906874</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.42017805510034</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.592269819255198</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.21156647055134</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.00470518693479</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>13.76156859807145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.21729339665021</v>
+      </c>
+      <c r="R4">
+        <v>12.02153595152607</v>
+      </c>
+      <c r="S4">
+        <v>13.58955382234407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.6696324295986</v>
+        <v>15.50507898295449</v>
       </c>
       <c r="C5">
-        <v>12.7452756426771</v>
+        <v>12.90950111514924</v>
       </c>
       <c r="D5">
-        <v>6.243668771803562</v>
+        <v>6.24195724957298</v>
       </c>
       <c r="E5">
-        <v>13.69800065419085</v>
+        <v>13.65824444670182</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>21.56796493933602</v>
+        <v>20.50204372052228</v>
       </c>
       <c r="H5">
-        <v>1.938373322790538</v>
+        <v>1.927965807973064</v>
       </c>
       <c r="I5">
-        <v>3.104434222255416</v>
+        <v>3.109793785251477</v>
       </c>
       <c r="J5">
-        <v>8.355548065966069</v>
+        <v>8.885171684732432</v>
       </c>
       <c r="K5">
-        <v>12.34693341812162</v>
+        <v>12.13485730229715</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.45472590850388</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.585265636530662</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.948510786414</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.02825392895464</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>13.67945632119539</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.95485185634979</v>
+      </c>
+      <c r="R5">
+        <v>12.04000401067085</v>
+      </c>
+      <c r="S5">
+        <v>13.51803021963055</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.60974136687724</v>
+        <v>15.44760135759453</v>
       </c>
       <c r="C6">
-        <v>12.7220825918272</v>
+        <v>12.88244376681195</v>
       </c>
       <c r="D6">
-        <v>6.22099571900474</v>
+        <v>6.219329072946248</v>
       </c>
       <c r="E6">
-        <v>13.66686338975416</v>
+        <v>13.62779349363818</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21.50716565121232</v>
+        <v>20.44430873218177</v>
       </c>
       <c r="H6">
-        <v>1.92924719632337</v>
+        <v>1.919141578127752</v>
       </c>
       <c r="I6">
-        <v>3.098688983487619</v>
+        <v>3.105152307602551</v>
       </c>
       <c r="J6">
-        <v>8.349814149772881</v>
+        <v>8.87905859875068</v>
       </c>
       <c r="K6">
-        <v>12.34167023161989</v>
+        <v>12.13100989337858</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.45530949920521</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.580827619942011</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.90436154555289</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.03296178320511</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>13.6592585888657</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.91080645036664</v>
+      </c>
+      <c r="R6">
+        <v>12.04396150009013</v>
+      </c>
+      <c r="S6">
+        <v>13.49964615790297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.96866029631778</v>
+        <v>15.78462619168733</v>
       </c>
       <c r="C7">
-        <v>12.97119038795262</v>
+        <v>13.1511289431626</v>
       </c>
       <c r="D7">
-        <v>6.376609011301722</v>
+        <v>6.374584613256761</v>
       </c>
       <c r="E7">
-        <v>13.87749740161944</v>
+        <v>13.83563250057795</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>21.79266350910057</v>
+        <v>20.8074476429843</v>
       </c>
       <c r="H7">
-        <v>1.990642394956901</v>
+        <v>1.978136010023419</v>
       </c>
       <c r="I7">
-        <v>3.142933706249934</v>
+        <v>3.14413641465511</v>
       </c>
       <c r="J7">
-        <v>8.367329002056019</v>
+        <v>8.854744042607548</v>
       </c>
       <c r="K7">
-        <v>12.32571744744392</v>
+        <v>12.10141172849679</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.40192435540034</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.577986587080062</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.20801215938891</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.00717225463499</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>13.74252763852819</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.21064910875823</v>
+      </c>
+      <c r="R7">
+        <v>12.02518019312181</v>
+      </c>
+      <c r="S7">
+        <v>13.55896493021659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.47112270476935</v>
+        <v>17.20755046153277</v>
       </c>
       <c r="C8">
-        <v>13.99697125882778</v>
+        <v>14.27696599096442</v>
       </c>
       <c r="D8">
-        <v>7.024640578498893</v>
+        <v>7.021028185585686</v>
       </c>
       <c r="E8">
-        <v>14.76896104424588</v>
+        <v>14.71243844937253</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>23.07078170364368</v>
+        <v>22.20512559406169</v>
       </c>
       <c r="H8">
-        <v>2.252045930680043</v>
+        <v>2.230031970408989</v>
       </c>
       <c r="I8">
-        <v>3.330808588574417</v>
+        <v>3.310021974076496</v>
       </c>
       <c r="J8">
-        <v>8.457798864717942</v>
+        <v>8.852559870766036</v>
       </c>
       <c r="K8">
-        <v>12.28135813278745</v>
+        <v>12.00492662822618</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.19606131893852</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.63522428652367</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.48079911441118</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>11.89639744606897</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.13405427450603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>16.47379488423751</v>
+      </c>
+      <c r="R8">
+        <v>11.94415646608105</v>
+      </c>
+      <c r="S8">
+        <v>13.86854991987407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.09447633538182</v>
+        <v>19.70969427062144</v>
       </c>
       <c r="C9">
-        <v>15.79251109588041</v>
+        <v>16.27526626981726</v>
       </c>
       <c r="D9">
-        <v>8.158249497807093</v>
+        <v>8.151232304240295</v>
       </c>
       <c r="E9">
-        <v>16.37201897263852</v>
+        <v>16.28522451280134</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>25.54252141504704</v>
+        <v>24.55389884702213</v>
       </c>
       <c r="H9">
-        <v>2.73061651285887</v>
+        <v>2.692049276420331</v>
       </c>
       <c r="I9">
-        <v>3.677193333633672</v>
+        <v>3.616917960171876</v>
       </c>
       <c r="J9">
-        <v>8.670892440436697</v>
+        <v>9.027404259334793</v>
       </c>
       <c r="K9">
-        <v>12.26366288323076</v>
+        <v>11.89159210320936</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.84734796136298</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.973084233735613</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.72886230650694</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>11.69345813783104</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.95219422419023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>18.71406137201762</v>
+      </c>
+      <c r="R9">
+        <v>11.79850196552935</v>
+      </c>
+      <c r="S9">
+        <v>14.56448774529245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.80989619744242</v>
+        <v>21.3239740751112</v>
       </c>
       <c r="C10">
-        <v>17.00225399790701</v>
+        <v>17.56799356301812</v>
       </c>
       <c r="D10">
-        <v>8.908610102552892</v>
+        <v>8.898452174505557</v>
       </c>
       <c r="E10">
-        <v>16.96003598854818</v>
+        <v>16.86062714703779</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.08555218014899</v>
+        <v>26.50659969015723</v>
       </c>
       <c r="H10">
-        <v>3.038700867810833</v>
+        <v>2.987008403907961</v>
       </c>
       <c r="I10">
-        <v>3.916524218690492</v>
+        <v>3.827590219551474</v>
       </c>
       <c r="J10">
-        <v>8.805405908681079</v>
+        <v>8.884216512498805</v>
       </c>
       <c r="K10">
-        <v>12.21626878186901</v>
+        <v>11.74232396709112</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.54552848729105</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.24583809251521</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.94232272293857</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>11.57486908719476</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.47277481056317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.90774570900252</v>
+      </c>
+      <c r="R10">
+        <v>11.73333512123617</v>
+      </c>
+      <c r="S10">
+        <v>14.93775672700896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.57589694432743</v>
+        <v>22.0380800144431</v>
       </c>
       <c r="C11">
-        <v>17.44196681922068</v>
+        <v>17.91257700299208</v>
       </c>
       <c r="D11">
-        <v>9.228102512523122</v>
+        <v>9.216255215518148</v>
       </c>
       <c r="E11">
-        <v>13.22403749762875</v>
+        <v>13.10355358022973</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>26.20570746500854</v>
+        <v>26.71257020819181</v>
       </c>
       <c r="H11">
-        <v>3.608910224368198</v>
+        <v>3.561550025485828</v>
       </c>
       <c r="I11">
-        <v>3.992619506554413</v>
+        <v>3.892778443363329</v>
       </c>
       <c r="J11">
-        <v>8.570499861663926</v>
+        <v>8.186591736674668</v>
       </c>
       <c r="K11">
-        <v>11.71303861164607</v>
+        <v>11.21318548007932</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.12844011845736</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.941259535775266</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.03838101445126</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.69565653891597</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.99011798299994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>17.97447837923527</v>
+      </c>
+      <c r="R11">
+        <v>11.90535566855175</v>
+      </c>
+      <c r="S11">
+        <v>14.3354269339471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.89604965460942</v>
+        <v>22.3498157726289</v>
       </c>
       <c r="C12">
-        <v>17.53332109304528</v>
+        <v>17.93168957455899</v>
       </c>
       <c r="D12">
-        <v>9.34509932152306</v>
+        <v>9.332684159663437</v>
       </c>
       <c r="E12">
-        <v>10.54648695351243</v>
+        <v>10.38548581168671</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>25.17597273339401</v>
+        <v>26.22707041343353</v>
       </c>
       <c r="H12">
-        <v>4.640490341488562</v>
+        <v>4.60377112055186</v>
       </c>
       <c r="I12">
-        <v>4.008461714593453</v>
+        <v>3.904870751674293</v>
       </c>
       <c r="J12">
-        <v>8.347623273971179</v>
+        <v>7.801153056613461</v>
       </c>
       <c r="K12">
-        <v>11.31981084461724</v>
+        <v>10.84275453770324</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.878809201520392</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.653462891248076</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.16393211776173</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11.8372045431799</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.48501887512175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>16.08823118786093</v>
+      </c>
+      <c r="R12">
+        <v>12.07279719748583</v>
+      </c>
+      <c r="S12">
+        <v>13.79986603388083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.88453962776705</v>
+        <v>22.37342483063972</v>
       </c>
       <c r="C13">
-        <v>17.3991923938197</v>
+        <v>17.75587126852377</v>
       </c>
       <c r="D13">
-        <v>9.316944192510569</v>
+        <v>9.304949471669461</v>
       </c>
       <c r="E13">
-        <v>9.001222694174855</v>
+        <v>8.796880164630887</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>23.8808046594393</v>
+        <v>24.88903321217294</v>
       </c>
       <c r="H13">
-        <v>5.829709466700065</v>
+        <v>5.802579258401373</v>
       </c>
       <c r="I13">
-        <v>3.981229507303882</v>
+        <v>3.881352581458571</v>
       </c>
       <c r="J13">
-        <v>8.107703122753943</v>
+        <v>7.678034519540752</v>
       </c>
       <c r="K13">
-        <v>10.96194909609323</v>
+        <v>10.55826546587006</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.720919979157632</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>6.351800785480425</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.1438939565778</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.0006431564609</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.89675495680049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.07460939518836</v>
+      </c>
+      <c r="R13">
+        <v>12.23665367206774</v>
+      </c>
+      <c r="S13">
+        <v>13.27543818287356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.72291219748474</v>
+        <v>22.25616726369761</v>
       </c>
       <c r="C14">
-        <v>17.20875754847815</v>
+        <v>17.54886959855596</v>
       </c>
       <c r="D14">
-        <v>9.231262122321448</v>
+        <v>9.219993890643286</v>
       </c>
       <c r="E14">
-        <v>8.915814955038607</v>
+        <v>8.706041048255384</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>22.82711847381443</v>
+        <v>23.54621552348162</v>
       </c>
       <c r="H14">
-        <v>6.716684776437343</v>
+        <v>6.695063147320866</v>
       </c>
       <c r="I14">
-        <v>3.943638364037032</v>
+        <v>3.849961262513968</v>
       </c>
       <c r="J14">
-        <v>7.929812708508774</v>
+        <v>7.693921306200428</v>
       </c>
       <c r="K14">
-        <v>10.72583866455372</v>
+        <v>10.39336235990462</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.644754816708909</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.132481205723649</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.63973703609632</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.12572201707741</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.43891559892877</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.58281563140325</v>
+      </c>
+      <c r="R14">
+        <v>12.34934718372704</v>
+      </c>
+      <c r="S14">
+        <v>12.90359225402706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.60668577914283</v>
+        <v>22.15948888344559</v>
       </c>
       <c r="C15">
-        <v>17.12205193843334</v>
+        <v>17.46335522697088</v>
       </c>
       <c r="D15">
-        <v>9.17899907672208</v>
+        <v>9.168110453760056</v>
       </c>
       <c r="E15">
-        <v>9.031588357501702</v>
+        <v>8.828035122592711</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>22.49849069564463</v>
+        <v>23.03577370839701</v>
       </c>
       <c r="H15">
-        <v>6.920017081468146</v>
+        <v>6.899867703714407</v>
       </c>
       <c r="I15">
-        <v>3.925606371053035</v>
+        <v>3.835477391432619</v>
       </c>
       <c r="J15">
-        <v>7.881333586792283</v>
+        <v>7.740841610674888</v>
       </c>
       <c r="K15">
-        <v>10.67160259710947</v>
+        <v>10.36496613944486</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.638894892647823</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.072534130783016</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.23848873958112</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.15949226575696</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.30466629200294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>12.18790735546414</v>
+      </c>
+      <c r="R15">
+        <v>12.37492075345806</v>
+      </c>
+      <c r="S15">
+        <v>12.80793302739142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.90381261278832</v>
+        <v>21.53174172488278</v>
       </c>
       <c r="C16">
-        <v>16.65887142463224</v>
+        <v>17.03837440877586</v>
       </c>
       <c r="D16">
-        <v>8.876458027146624</v>
+        <v>8.867393873350196</v>
       </c>
       <c r="E16">
-        <v>8.94041493133011</v>
+        <v>8.766437299698515</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>21.99388168465482</v>
+        <v>21.61400674896396</v>
       </c>
       <c r="H16">
-        <v>6.652269566985634</v>
+        <v>6.635146858711131</v>
       </c>
       <c r="I16">
-        <v>3.83074909635877</v>
+        <v>3.756135215254996</v>
       </c>
       <c r="J16">
-        <v>7.863127853222259</v>
+        <v>8.133002474197751</v>
       </c>
       <c r="K16">
-        <v>10.75565140527513</v>
+        <v>10.51694128096704</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.786620274218267</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.055890484499681</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.99254277356885</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.16236649806328</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.16717083492903</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.96961627205782</v>
+      </c>
+      <c r="R16">
+        <v>12.3342330586581</v>
+      </c>
+      <c r="S16">
+        <v>12.816506120198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.44127777439832</v>
+        <v>21.09634223638183</v>
       </c>
       <c r="C17">
-        <v>16.40324691228153</v>
+        <v>16.81000375655712</v>
       </c>
       <c r="D17">
-        <v>8.687085597121188</v>
+        <v>8.678931882837301</v>
       </c>
       <c r="E17">
-        <v>8.736248162144614</v>
+        <v>8.572755675310392</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>22.1912717572288</v>
+        <v>21.3932427318004</v>
       </c>
       <c r="H17">
-        <v>5.92665470662462</v>
+        <v>5.909402715523162</v>
       </c>
       <c r="I17">
-        <v>3.777688723199823</v>
+        <v>3.711226846131421</v>
       </c>
       <c r="J17">
-        <v>7.945289297766063</v>
+        <v>8.384702487699428</v>
       </c>
       <c r="K17">
-        <v>10.94419553764694</v>
+        <v>10.71533547251558</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.944884597826459</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.151776339957186</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.63920412992257</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.10018085253621</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.31205084540631</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.62764344030209</v>
+      </c>
+      <c r="R17">
+        <v>12.25039630974839</v>
+      </c>
+      <c r="S17">
+        <v>13.01129024724618</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.1556124494486</v>
+        <v>20.80784155120413</v>
       </c>
       <c r="C18">
-        <v>16.28460642257394</v>
+        <v>16.7280095767648</v>
       </c>
       <c r="D18">
-        <v>8.577742832457416</v>
+        <v>8.5699496739213</v>
       </c>
       <c r="E18">
-        <v>9.364303088141366</v>
+        <v>9.212526966984729</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>23.041910581095</v>
+        <v>22.03020125652313</v>
       </c>
       <c r="H18">
-        <v>4.782994328990916</v>
+        <v>4.762076101948018</v>
       </c>
       <c r="I18">
-        <v>3.754473448928244</v>
+        <v>3.690177370448533</v>
       </c>
       <c r="J18">
-        <v>8.125811776879347</v>
+        <v>8.619471361546919</v>
       </c>
       <c r="K18">
-        <v>11.25635577639037</v>
+        <v>10.99995920049052</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.14821241897524</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.368335449606338</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.13808207689089</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>11.97861505007743</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.72459612121933</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.13024800206599</v>
+      </c>
+      <c r="R18">
+        <v>12.11752159782431</v>
+      </c>
+      <c r="S18">
+        <v>13.42075077406672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.0146595831457</v>
+        <v>20.64415324631728</v>
       </c>
       <c r="C19">
-        <v>16.3322404856528</v>
+        <v>16.8242962835826</v>
       </c>
       <c r="D19">
-        <v>8.542376853078332</v>
+        <v>8.534522491693904</v>
       </c>
       <c r="E19">
-        <v>11.65613513132859</v>
+        <v>11.52736056249708</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>24.26894180423893</v>
+        <v>23.14630179615903</v>
       </c>
       <c r="H19">
-        <v>3.590085025193699</v>
+        <v>3.560407304468598</v>
       </c>
       <c r="I19">
-        <v>3.765003945810829</v>
+        <v>3.700097597818503</v>
       </c>
       <c r="J19">
-        <v>8.357935169534885</v>
+        <v>8.843612721921547</v>
       </c>
       <c r="K19">
-        <v>11.62169131831311</v>
+        <v>11.31553837162879</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.36189773543393</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.645228483194092</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.19459919381071</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>11.83615247692187</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.28522819720001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>16.18616830905753</v>
+      </c>
+      <c r="R19">
+        <v>11.96968249064869</v>
+      </c>
+      <c r="S19">
+        <v>13.94674153957404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.33426431949761</v>
+        <v>20.88979154881647</v>
       </c>
       <c r="C20">
-        <v>16.761441860133</v>
+        <v>17.33394969921176</v>
       </c>
       <c r="D20">
-        <v>8.716790678584749</v>
+        <v>8.707699428306841</v>
       </c>
       <c r="E20">
-        <v>16.78294201496578</v>
+        <v>16.6812931747484</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>26.56817514456766</v>
+        <v>25.58433124414791</v>
       </c>
       <c r="H20">
-        <v>2.955639299309866</v>
+        <v>2.908506230361128</v>
       </c>
       <c r="I20">
-        <v>3.859792476177136</v>
+        <v>3.782811483700353</v>
       </c>
       <c r="J20">
-        <v>8.746744717171694</v>
+        <v>9.050671033818951</v>
       </c>
       <c r="K20">
-        <v>12.17320360720712</v>
+        <v>11.74993859105099</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.60381601563564</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.140923590690281</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.61862849569977</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>11.6147705317778</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.28175157402557</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>19.59798675778985</v>
+      </c>
+      <c r="R20">
+        <v>11.75541485679325</v>
+      </c>
+      <c r="S20">
+        <v>14.82499844079886</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.58606122591364</v>
+        <v>21.98342316200963</v>
       </c>
       <c r="C21">
-        <v>17.65965089123517</v>
+        <v>18.16591506587503</v>
       </c>
       <c r="D21">
-        <v>9.267996621677742</v>
+        <v>9.255259137870787</v>
       </c>
       <c r="E21">
-        <v>17.97715279284861</v>
+        <v>17.89962145054084</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>28.02564733036555</v>
+        <v>28.8689353353731</v>
       </c>
       <c r="H21">
-        <v>3.223320780793538</v>
+        <v>3.160308283628869</v>
       </c>
       <c r="I21">
-        <v>4.045355170720135</v>
+        <v>3.938246537215426</v>
       </c>
       <c r="J21">
-        <v>8.910659355293047</v>
+        <v>8.241905932606009</v>
       </c>
       <c r="K21">
-        <v>12.24009467371051</v>
+        <v>11.61792894942049</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.36566889845222</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.352186156692245</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.94226660307578</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.50006922517992</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.81942039171705</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>20.86128221849159</v>
+      </c>
+      <c r="R21">
+        <v>11.70743361154517</v>
+      </c>
+      <c r="S21">
+        <v>15.03909385765578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.38430632167033</v>
+        <v>22.67925623138078</v>
       </c>
       <c r="C22">
-        <v>18.19291873336321</v>
+        <v>18.64488140236953</v>
       </c>
       <c r="D22">
-        <v>9.613690760848749</v>
+        <v>9.598442309583911</v>
       </c>
       <c r="E22">
-        <v>18.48485758772728</v>
+        <v>18.42502227765648</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.91145729080792</v>
+        <v>31.01902592632826</v>
       </c>
       <c r="H22">
-        <v>3.382798823301228</v>
+        <v>3.309680945814448</v>
       </c>
       <c r="I22">
-        <v>4.160399544856844</v>
+        <v>4.032991944320554</v>
       </c>
       <c r="J22">
-        <v>9.011934793193674</v>
+        <v>7.703275930514335</v>
       </c>
       <c r="K22">
-        <v>12.28370540742914</v>
+        <v>11.52248407179557</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.2069383655552</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.490787953427085</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.63216045181528</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.43213827132316</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>16.1496795553387</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>21.51012889557734</v>
+      </c>
+      <c r="R22">
+        <v>11.68744004098253</v>
+      </c>
+      <c r="S22">
+        <v>15.14755858825261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.97582098702726</v>
+        <v>22.33563294670895</v>
       </c>
       <c r="C23">
-        <v>17.88496270910681</v>
+        <v>18.38387835899891</v>
       </c>
       <c r="D23">
-        <v>9.43057825717697</v>
+        <v>9.416803912104765</v>
       </c>
       <c r="E23">
-        <v>18.21647811312814</v>
+        <v>18.14277031905558</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>28.4793211570752</v>
+        <v>29.70399800021182</v>
       </c>
       <c r="H23">
-        <v>3.298433194964723</v>
+        <v>3.231323818158575</v>
       </c>
       <c r="I23">
-        <v>4.096979974232318</v>
+        <v>3.980074166997861</v>
       </c>
       <c r="J23">
-        <v>8.965386125188125</v>
+        <v>8.087122965430952</v>
       </c>
       <c r="K23">
-        <v>12.27919880062571</v>
+        <v>11.60572578858228</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.3107242696574</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.446710174033752</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.26663688089314</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.46458312483234</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.99169502502946</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>21.172558038946</v>
+      </c>
+      <c r="R23">
+        <v>11.68963694924431</v>
+      </c>
+      <c r="S23">
+        <v>15.13555477977451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.33154670977605</v>
+        <v>20.88571750165297</v>
       </c>
       <c r="C24">
-        <v>16.71724212919322</v>
+        <v>17.29414912444178</v>
       </c>
       <c r="D24">
-        <v>8.708070178784979</v>
+        <v>8.698984720336719</v>
       </c>
       <c r="E24">
-        <v>17.16318904260257</v>
+        <v>17.0629371392195</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>26.74840305788072</v>
+        <v>25.74200140599509</v>
       </c>
       <c r="H24">
-        <v>2.971535586505669</v>
+        <v>2.92428643031427</v>
       </c>
       <c r="I24">
-        <v>3.856188893027329</v>
+        <v>3.7773153725553</v>
       </c>
       <c r="J24">
-        <v>8.78255768165052</v>
+        <v>9.090861257110674</v>
       </c>
       <c r="K24">
-        <v>12.24422472519735</v>
+        <v>11.81488117294922</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.64875232494689</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.195525950412132</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.82477556680405</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>11.59802073306636</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.36617298101775</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>19.80441565796774</v>
+      </c>
+      <c r="R24">
+        <v>11.73632598105458</v>
+      </c>
+      <c r="S24">
+        <v>14.90750142996282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.3972270834268</v>
+        <v>19.05040275626108</v>
       </c>
       <c r="C25">
-        <v>15.36887473931934</v>
+        <v>15.81212156512926</v>
       </c>
       <c r="D25">
-        <v>7.865976546567268</v>
+        <v>7.860021055566643</v>
       </c>
       <c r="E25">
-        <v>15.95276943043411</v>
+        <v>15.87143568715357</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>24.81959264619809</v>
+        <v>23.73464767664542</v>
       </c>
       <c r="H25">
-        <v>2.604012607628197</v>
+        <v>2.570352714378736</v>
       </c>
       <c r="I25">
-        <v>3.588197545397253</v>
+        <v>3.540545214091215</v>
       </c>
       <c r="J25">
-        <v>8.598360316157997</v>
+        <v>9.029581926038379</v>
       </c>
       <c r="K25">
-        <v>12.23396155410721</v>
+        <v>11.89880221958749</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.92576444865644</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.844755637174933</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.14759673095707</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>11.7511063864505</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.69898724814913</v>
+        <v>18.13873879342269</v>
+      </c>
+      <c r="R25">
+        <v>11.83922047503671</v>
+      </c>
+      <c r="S25">
+        <v>14.3610631345414</v>
       </c>
     </row>
   </sheetData>
